--- a/Excel Files/Scenario 10/S10_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 10/S10_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98CA432-A75B-48B2-B6BC-ECCD5EE18F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3667685C-227B-4286-81D5-A99522B24E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="138" activeTab="144" xr2:uid="{D91DBB81-1EAD-47E0-8243-635DFA859784}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D91DBB81-1EAD-47E0-8243-635DFA859784}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -2993,7 +2993,7 @@
     <t>PNA2311004</t>
   </si>
   <si>
-    <t>Z6</t>
+    <t>Z8</t>
   </si>
 </sst>
 </file>
@@ -3001,30 +3001,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="24">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000_ "/>
-    <numFmt numFmtId="167" formatCode="0.00;\-0.00;0"/>
-    <numFmt numFmtId="168" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="#,##0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.00_ ;\-0.00\ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ ;\-0.0\ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="[$-14409]d/m/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="#,##0.000000_);[Red]\(#,##0.000000\)"/>
-    <numFmt numFmtId="185" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="186" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000_ "/>
+    <numFmt numFmtId="168" formatCode="0.00;\-0.00;0"/>
+    <numFmt numFmtId="169" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="171" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="[$-14409]d/m/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.000000_);[Red]\(#,##0.000000\)"/>
+    <numFmt numFmtId="186" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="187" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3555,13 +3555,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -3579,7 +3579,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3595,7 +3595,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3631,7 +3631,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3643,7 +3643,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3658,16 +3658,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3676,8 +3676,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3687,7 +3687,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3708,14 +3708,14 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3728,7 +3728,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3745,23 +3745,23 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3781,7 +3781,7 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3807,10 +3807,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3831,7 +3831,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3842,7 +3842,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3850,7 +3850,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3862,15 +3862,15 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3879,27 +3879,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3920,34 +3920,34 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="21" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3957,16 +3957,16 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3997,7 +3997,7 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="16" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4027,22 +4027,22 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4052,7 +4052,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4082,13 +4082,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="16" fillId="7" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4106,7 +4106,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="23" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4128,10 +4128,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4142,10 +4142,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4158,7 +4158,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4184,16 +4184,16 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="185" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4201,14 +4201,14 @@
     <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="183" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="24" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -4567,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB6EDA-40F5-48B1-BF15-1AC7813BFBB3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4592,22 +4592,22 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="96">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>876</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>B2&amp;"s1"</f>
-        <v>Z6s1</v>
+        <v>Z8s1</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>B2&amp;"s2"</f>
-        <v>Z6s2</v>
+        <v>Z8s2</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>A2&amp;"s2"</f>
-        <v>26s2</v>
+        <v>19s2</v>
       </c>
     </row>
   </sheetData>
@@ -4703,15 +4703,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>Z6-26</v>
+        <v>Z8-19</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-"&amp;F2</f>
-        <v>CD-Z6-26</v>
+        <v>CD-Z8-19</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC003'!C2&amp;"("&amp;'TC003'!D2&amp;")"</f>
-        <v>FN 60 DAYS-Z6(60 DAYS BY INV DATE)</v>
+        <v>FN 60 DAYS-Z8(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>144</v>
@@ -4724,22 +4724,22 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC004'!A2&amp;"("&amp;'TC004'!A2&amp;")"</f>
-        <v>PNDC-PNCUS-Z6(PNDC-PNCUS-Z6)</v>
+        <v>PNDC-PNCUS-Z8(PNDC-PNCUS-Z8)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-"&amp;F2</f>
-        <v>RD-Z6-26</v>
+        <v>RD-Z8-19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>148</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>"S1D-"&amp;F2</f>
-        <v>S1D-Z6-26</v>
+        <v>S1D-Z8-19</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>"S2D-"&amp;F2</f>
-        <v>S2D-Z6-26</v>
+        <v>S2D-Z8-19</v>
       </c>
       <c r="Q2" t="s">
         <v>801</v>
@@ -4960,11 +4960,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B2" s="46" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>145</v>
@@ -5039,7 +5039,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="str">
         <f>'TC081-BU Check PO'!A2</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B2" s="170">
         <v>44000</v>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B2" s="172" t="str">
         <f>'TC051'!F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="173">
         <v>140085460</v>
@@ -5125,7 +5125,7 @@
     <row r="3" spans="1:8">
       <c r="B3" s="172" t="str">
         <f>'TC051'!F3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="173">
         <v>140085460</v>
@@ -5141,7 +5141,7 @@
     <row r="4" spans="1:8">
       <c r="B4" s="172" t="str">
         <f>'TC051'!F4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="173">
         <v>88000</v>
@@ -5184,19 +5184,19 @@
     <row r="2" spans="1:1">
       <c r="A2" s="175">
         <f ca="1">TODAY()+1</f>
-        <v>45241</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="175">
         <f ca="1">TODAY()+7</f>
-        <v>45247</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="175">
         <f ca="1">TODAY()+14</f>
-        <v>45254</v>
+        <v>45261</v>
       </c>
     </row>
   </sheetData>
@@ -5312,11 +5312,11 @@
     <row r="2" spans="1:17" ht="13.95" customHeight="1">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="E2" s="7"/>
@@ -5352,11 +5352,11 @@
     <row r="3" spans="1:17" ht="13.95" customHeight="1">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="E3" s="7"/>
@@ -5392,11 +5392,11 @@
     <row r="4" spans="1:17" ht="13.95" customHeight="1">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -5523,11 +5523,11 @@
     <row r="2" spans="1:22">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="s">
@@ -5573,11 +5573,11 @@
     <row r="3" spans="1:22" ht="27.6">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="s">
@@ -5623,11 +5623,11 @@
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="s">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>"PNABU-L3-"&amp;AutoIncrement!B2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
     </row>
   </sheetData>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="D2" s="189">
         <f ca="1">EDATE(TODAY(), 1)</f>
-        <v>45270</v>
+        <v>45277</v>
       </c>
     </row>
   </sheetData>
@@ -5838,11 +5838,11 @@
     <row r="2" spans="1:17" s="46" customFormat="1">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -5878,11 +5878,11 @@
     <row r="3" spans="1:17" s="46" customFormat="1">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="7"/>
@@ -5918,11 +5918,11 @@
     <row r="4" spans="1:17" s="46" customFormat="1">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5993,7 +5993,7 @@
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+12), "dd MMM yyyy")</f>
-        <v>22 12月 2023</v>
+        <v>29 Dec 2023</v>
       </c>
       <c r="B2" t="str">
         <f>'TC050-Sup1 SO List'!A2</f>
@@ -6098,11 +6098,11 @@
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="s">
@@ -6148,11 +6148,11 @@
     <row r="3" spans="1:23" ht="27.6">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="s">
@@ -6198,11 +6198,11 @@
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="s">
@@ -6348,11 +6348,11 @@
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>145</v>
@@ -6412,11 +6412,11 @@
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>145</v>
@@ -6476,11 +6476,11 @@
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>145</v>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B2" s="172" t="str">
         <f>'TC051'!F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -6660,7 +6660,7 @@
     <row r="3" spans="1:14">
       <c r="B3" s="172" t="str">
         <f>'TC051'!F3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -6702,7 +6702,7 @@
     <row r="4" spans="1:14">
       <c r="B4" s="172" t="str">
         <f>'TC051'!F4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="170">
         <v>22000</v>
@@ -6771,7 +6771,7 @@
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="1" t="str">
         <f>'TC102-Supplier1 Outbound'!C2</f>
-        <v>o-MY-ELA-Z6-26-001</v>
+        <v>o-MY-ELA-Z8-19-001</v>
       </c>
       <c r="B2" t="s">
         <v>825</v>
@@ -6780,7 +6780,7 @@
     <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="1" t="str">
         <f>'TC102-Supplier1 Outbound'!C7</f>
-        <v>o-MY-ELA-Z6-26-002</v>
+        <v>o-MY-ELA-Z8-19-002</v>
       </c>
       <c r="B3" t="s">
         <v>826</v>
@@ -6789,7 +6789,7 @@
     <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="1" t="str">
         <f>'TC102-Supplier1 Outbound'!C9</f>
-        <v>o-MY-ELA-Z6-26-003</v>
+        <v>o-MY-ELA-Z8-19-003</v>
       </c>
       <c r="B4" t="s">
         <v>827</v>
@@ -6953,19 +6953,19 @@
       </c>
       <c r="C2" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z6-26-001</v>
+        <v>o-MY-ELA-Z8-19-001</v>
       </c>
       <c r="D2" s="113" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F2" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>114</v>
@@ -6987,11 +6987,11 @@
       </c>
       <c r="N2" s="117" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+9), "dd MMM yyyy")</f>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O2" s="117" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+13), "dd MMM yyyy")</f>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="AI2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="AJ2" s="116" t="s">
         <v>518</v>
@@ -7046,19 +7046,19 @@
       </c>
       <c r="C3" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z6-26-001</v>
+        <v>o-MY-ELA-Z8-19-001</v>
       </c>
       <c r="D3" s="113" t="str">
         <f t="shared" ref="D3:D11" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F3" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>114</v>
@@ -7080,11 +7080,11 @@
       </c>
       <c r="N3" s="117" t="str">
         <f t="shared" ref="N3:N6" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+9), "dd MMM yyyy")</f>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O3" s="117" t="str">
         <f t="shared" ref="O3:O6" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+13), "dd MMM yyyy")</f>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>519</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="AI3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="AJ3" s="116" t="s">
         <v>523</v>
@@ -7155,19 +7155,19 @@
       </c>
       <c r="C4" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z6-26-001</v>
+        <v>o-MY-ELA-Z8-19-001</v>
       </c>
       <c r="D4" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F4" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>20</v>
@@ -7189,11 +7189,11 @@
       </c>
       <c r="N4" s="117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O4" s="117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>519</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="AI4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="AJ4" s="116" t="s">
         <v>249</v>
@@ -7266,19 +7266,19 @@
       </c>
       <c r="C5" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z6-26-001</v>
+        <v>o-MY-ELA-Z8-19-001</v>
       </c>
       <c r="D5" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F5" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>20</v>
@@ -7300,11 +7300,11 @@
       </c>
       <c r="N5" s="117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O5" s="117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>526</v>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="AI5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="AJ5" s="116" t="s">
         <v>249</v>
@@ -7389,19 +7389,19 @@
       </c>
       <c r="C6" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z6-26-001</v>
+        <v>o-MY-ELA-Z8-19-001</v>
       </c>
       <c r="D6" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F6" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="G6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>114</v>
@@ -7423,11 +7423,11 @@
       </c>
       <c r="N6" s="117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O6" s="117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>526</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="AI6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="AJ6" s="116" t="s">
         <v>518</v>
@@ -7512,15 +7512,15 @@
       </c>
       <c r="C7" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-ELA-Z6-26-002</v>
+        <v>o-MY-ELA-Z8-19-002</v>
       </c>
       <c r="D7" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>114</v>
@@ -7544,7 +7544,7 @@
       <c r="O7" s="121"/>
       <c r="P7" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z6s1</v>
+        <v>NYKU8417026Z8s1</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="AI7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="AJ7" s="116" t="s">
         <v>518</v>
@@ -7614,15 +7614,15 @@
       </c>
       <c r="C8" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-ELA-Z6-26-002</v>
+        <v>o-MY-ELA-Z8-19-002</v>
       </c>
       <c r="D8" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>114</v>
@@ -7646,7 +7646,7 @@
       <c r="O8" s="121"/>
       <c r="P8" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z6s1</v>
+        <v>NYKU8417026Z8s1</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AI8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="AJ8" s="116" t="s">
         <v>523</v>
@@ -7716,19 +7716,19 @@
       </c>
       <c r="C9" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>o-MY-ELA-Z6-26-003</v>
+        <v>o-MY-ELA-Z8-19-003</v>
       </c>
       <c r="D9" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F9" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>20</v>
@@ -7750,11 +7750,11 @@
       </c>
       <c r="N9" s="117" t="str">
         <f t="shared" ref="N9:N11" ca="1" si="3">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+9), "dd MMM yyyy")</f>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O9" s="117" t="str">
         <f t="shared" ref="O9:O11" ca="1" si="4">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+13), "dd MMM yyyy")</f>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>529</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="AI9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="AJ9" s="116" t="s">
         <v>249</v>
@@ -7823,19 +7823,19 @@
       </c>
       <c r="C10" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>o-MY-ELA-Z6-26-003</v>
+        <v>o-MY-ELA-Z8-19-003</v>
       </c>
       <c r="D10" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F10" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -7857,11 +7857,11 @@
       </c>
       <c r="N10" s="117" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O10" s="117" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>532</v>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="AI10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="AJ10" s="116" t="s">
         <v>249</v>
@@ -7924,19 +7924,19 @@
       </c>
       <c r="C11" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>o-MY-ELA-Z6-26-003</v>
+        <v>o-MY-ELA-Z8-19-003</v>
       </c>
       <c r="D11" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F11" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>20</v>
@@ -7958,11 +7958,11 @@
       </c>
       <c r="N11" s="117" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>19 11月 2023</v>
+        <v>26 Nov 2023</v>
       </c>
       <c r="O11" s="117" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>23 11月 2023</v>
+        <v>30 Nov 2023</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>533</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="AI11" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="AJ11" s="116" t="s">
         <v>249</v>
@@ -8163,7 +8163,7 @@
     <row r="2" spans="1:20" s="179" customFormat="1">
       <c r="A2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>519</v>
@@ -8226,7 +8226,7 @@
     <row r="3" spans="1:20" s="179" customFormat="1">
       <c r="A3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="101" t="s">
@@ -8287,7 +8287,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>526</v>
@@ -8350,7 +8350,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="B5" t="s">
         <v>573</v>
@@ -8413,7 +8413,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="B6" t="s">
         <v>575</v>
@@ -8476,7 +8476,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="B7" t="s">
         <v>576</v>
@@ -8625,7 +8625,7 @@
     <row r="2" spans="1:22">
       <c r="A2" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="B2" t="s">
         <v>190</v>
@@ -8659,19 +8659,19 @@
       </c>
       <c r="L2" t="str">
         <f>'TC007-Received Req Info'!F2</f>
-        <v>Z6-26</v>
+        <v>Z8-19</v>
       </c>
       <c r="M2" t="str">
         <f>'TC007-Received Req Info'!G2</f>
-        <v>CD-Z6-26</v>
+        <v>CD-Z8-19</v>
       </c>
       <c r="N2" t="str">
         <f>'TC007-Received Req Info'!H2</f>
-        <v>FN 60 DAYS-Z6(60 DAYS BY INV DATE)</v>
+        <v>FN 60 DAYS-Z8(60 DAYS BY INV DATE)</v>
       </c>
       <c r="O2" t="str">
         <f>'TC003'!C2</f>
-        <v>FN 60 DAYS-Z6</v>
+        <v>FN 60 DAYS-Z8</v>
       </c>
       <c r="P2" t="s">
         <v>144</v>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="S2" t="str">
         <f>'TC004'!A2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="T2" t="s">
         <v>148</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>565</v>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C3" s="101"/>
       <c r="D3" s="101" t="s">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>526</v>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B5" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>526</v>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="C6" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z6s1</v>
+        <v>NYKU8417026Z8s1</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>566</v>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="B7" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="C7" t="s">
         <v>573</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B8" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>575</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B9" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="C9" t="s">
         <v>576</v>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>565</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="B3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C3" s="101"/>
       <c r="D3" s="101" t="s">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="B4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C4" t="s">
         <v>572</v>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="B5" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="C5" t="s">
         <v>572</v>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B6" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="C6" t="s">
         <v>573</v>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="C7" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z6s1</v>
+        <v>NYKU8417026Z8s1</v>
       </c>
       <c r="D7" s="101" t="s">
         <v>566</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="B8" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="C8" t="s">
         <v>575</v>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B9" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="C9" t="s">
         <v>576</v>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="C2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>572</v>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="G2" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H2" s="186" t="s">
         <v>469</v>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="J2" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K2" t="s">
         <v>698</v>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="C3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>565</v>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="G3" s="186">
         <f t="shared" ref="G3:G8" ca="1" si="0">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H3" s="186" t="s">
         <v>756</v>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="J3" s="186">
         <f t="shared" ref="J3:J8" ca="1" si="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K3" t="s">
         <v>698</v>
@@ -10088,14 +10088,14 @@
       </c>
       <c r="C4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z6-26-001</v>
+        <v>Bs1-Z8-19-001</v>
       </c>
       <c r="F4" t="s">
         <v>677</v>
       </c>
       <c r="G4" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H4" s="186" t="s">
         <v>757</v>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="J4" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K4" t="s">
         <v>698</v>
@@ -10124,14 +10124,14 @@
       </c>
       <c r="D5" s="101" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z6s1</v>
+        <v>NYKU8417026Z8s1</v>
       </c>
       <c r="F5" t="s">
         <v>240</v>
       </c>
       <c r="G5" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H5" s="186" t="s">
         <v>758</v>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="J5" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K5" t="s">
         <v>698</v>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C6" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>573</v>
@@ -10170,7 +10170,7 @@
       </c>
       <c r="G6" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H6" s="186" t="s">
         <v>759</v>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="J6" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K6" t="s">
         <v>698</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="C7" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="D7" s="101" t="s">
         <v>576</v>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="G7" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H7" s="186" t="s">
         <v>760</v>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="J7" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K7" t="s">
         <v>698</v>
@@ -10238,7 +10238,7 @@
       </c>
       <c r="C8" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z6-26-003</v>
+        <v>Bs1-Z8-19-003</v>
       </c>
       <c r="D8" s="101" t="s">
         <v>575</v>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="G8" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H8" s="186" t="s">
         <v>761</v>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="J8" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K8" t="s">
         <v>698</v>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!$F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="187">
         <v>150</v>
@@ -10483,11 +10483,11 @@
     <row r="2" spans="1:26">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="s">
@@ -10538,11 +10538,11 @@
     <row r="3" spans="1:26" ht="26.4" customHeight="1">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="s">
@@ -10595,11 +10595,11 @@
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="s">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>145</v>
@@ -10823,11 +10823,11 @@
     <row r="3" spans="1:25">
       <c r="B3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>145</v>
@@ -10887,11 +10887,11 @@
     <row r="4" spans="1:25">
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>145</v>
@@ -11041,11 +11041,11 @@
     <row r="2" spans="1:20">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="str">
@@ -11104,11 +11104,11 @@
     <row r="3" spans="1:20" ht="27.6">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="str">
@@ -11167,11 +11167,11 @@
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="str">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11442,19 +11442,19 @@
       </c>
       <c r="C2" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z6-26-001</v>
+        <v>o-JP-YAZ-Z8-19-001</v>
       </c>
       <c r="D2" s="113" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>13</v>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="AI2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="AJ2" s="116" t="s">
         <v>259</v>
@@ -11551,19 +11551,19 @@
       </c>
       <c r="C3" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z6-26-001</v>
+        <v>o-JP-YAZ-Z8-19-001</v>
       </c>
       <c r="D3" s="113" t="str">
         <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F3" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>13</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="AI3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="AJ3" s="116" t="s">
         <v>261</v>
@@ -11660,19 +11660,19 @@
       </c>
       <c r="C4" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z6-26-001</v>
+        <v>o-JP-YAZ-Z8-19-001</v>
       </c>
       <c r="D4" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F4" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="AI4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="AJ4" s="116" t="s">
         <v>262</v>
@@ -11769,19 +11769,19 @@
       </c>
       <c r="C5" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z6-26-001</v>
+        <v>o-JP-YAZ-Z8-19-001</v>
       </c>
       <c r="D5" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="F5" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>6</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="AI5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="AJ5" s="116" t="s">
         <v>263</v>
@@ -11878,15 +11878,15 @@
       </c>
       <c r="C6" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-002"</f>
-        <v>o-JP-YAZ-Z6-26-002</v>
+        <v>o-JP-YAZ-Z8-19-002</v>
       </c>
       <c r="D6" s="113" t="str">
         <f t="shared" ref="D6:D10" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="G6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -11910,7 +11910,7 @@
       <c r="O6" s="117"/>
       <c r="P6" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="AI6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="AJ6" s="116" t="s">
         <v>259</v>
@@ -11970,15 +11970,15 @@
       </c>
       <c r="C7" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-002"</f>
-        <v>o-JP-YAZ-Z6-26-002</v>
+        <v>o-JP-YAZ-Z8-19-002</v>
       </c>
       <c r="D7" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>13</v>
@@ -12002,7 +12002,7 @@
       <c r="O7" s="121"/>
       <c r="P7" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="AI7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="AJ7" s="116" t="s">
         <v>262</v>
@@ -12062,15 +12062,15 @@
       </c>
       <c r="C8" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>o-JP-YAZ-Z6-26-003</v>
+        <v>o-JP-YAZ-Z8-19-003</v>
       </c>
       <c r="D8" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -12094,7 +12094,7 @@
       <c r="O8" s="121"/>
       <c r="P8" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="AI8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="AJ8" s="116" t="s">
         <v>261</v>
@@ -12154,15 +12154,15 @@
       </c>
       <c r="C9" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>o-JP-YAZ-Z6-26-003</v>
+        <v>o-JP-YAZ-Z8-19-003</v>
       </c>
       <c r="D9" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -12186,7 +12186,7 @@
       <c r="O9" s="117"/>
       <c r="P9" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -12223,7 +12223,7 @@
       </c>
       <c r="AI9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="AJ9" s="116" t="s">
         <v>262</v>
@@ -12246,15 +12246,15 @@
       </c>
       <c r="C10" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>o-JP-YAZ-Z6-26-003</v>
+        <v>o-JP-YAZ-Z8-19-003</v>
       </c>
       <c r="D10" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>6</v>
@@ -12278,7 +12278,7 @@
       <c r="O10" s="117"/>
       <c r="P10" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="AI10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="AJ10" s="116" t="s">
         <v>263</v>
@@ -12460,19 +12460,19 @@
     <row r="2" spans="1:32">
       <c r="A2" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="B2" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC007-Contract Parts Info'!C2</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D2</f>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="M2" s="28" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="U2" s="16">
         <f>'TC007-Contract Parts Info'!O2</f>
@@ -12553,19 +12553,19 @@
     <row r="3" spans="1:32">
       <c r="A3" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="B3" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" t="str">
         <f>'TC007-Contract Parts Info'!C3</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D3</f>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="M3" s="28" t="str">
         <f t="shared" ref="M3:M8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="U3" s="16">
         <f>'TC007-Contract Parts Info'!O3</f>
@@ -12646,19 +12646,19 @@
     <row r="4" spans="1:32">
       <c r="A4" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="B4" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" t="str">
         <f>'TC007-Contract Parts Info'!C4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="D4" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E4" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D4</f>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="M4" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="U4" s="16">
         <f>'TC007-Contract Parts Info'!O4</f>
@@ -12739,19 +12739,19 @@
     <row r="5" spans="1:32">
       <c r="A5" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="B5" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C5" t="str">
         <f>'TC007-Contract Parts Info'!C5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="D5" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="E5" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D5</f>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="M5" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="U5" s="16">
         <f>'TC007-Contract Parts Info'!O5</f>
@@ -12832,19 +12832,19 @@
     <row r="6" spans="1:32">
       <c r="A6" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="B6" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="C6" t="str">
         <f>'TC007-Contract Parts Info'!C6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="D6" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="E6" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D6</f>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="M6" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="U6" s="16">
         <f>'TC007-Contract Parts Info'!O6</f>
@@ -12925,19 +12925,19 @@
     <row r="7" spans="1:32">
       <c r="A7" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="B7" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="C7" t="str">
         <f>'TC007-Contract Parts Info'!C7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="D7" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="E7" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D7</f>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="M7" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="U7" s="16">
         <f>'TC007-Contract Parts Info'!O7</f>
@@ -13018,19 +13018,19 @@
     <row r="8" spans="1:32">
       <c r="A8" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="B8" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="C8" t="str">
         <f>'TC007-Contract Parts Info'!C8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="D8" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="E8" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D8</f>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="M8" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="U8" s="16">
         <f>'TC007-Contract Parts Info'!O8</f>
@@ -13144,7 +13144,7 @@
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="1" t="str">
         <f>'TC115-Supplier2 Outbound'!C5</f>
-        <v>o-JP-YAZ-Z6-26-001</v>
+        <v>o-JP-YAZ-Z8-19-001</v>
       </c>
       <c r="B2" t="s">
         <v>841</v>
@@ -13153,7 +13153,7 @@
     <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="1" t="str">
         <f>'TC115-Supplier2 Outbound'!C6</f>
-        <v>o-JP-YAZ-Z6-26-002</v>
+        <v>o-JP-YAZ-Z8-19-002</v>
       </c>
       <c r="B3" t="s">
         <v>842</v>
@@ -13162,7 +13162,7 @@
     <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="1" t="str">
         <f>'TC115-Supplier2 Outbound'!C8</f>
-        <v>o-JP-YAZ-Z6-26-003</v>
+        <v>o-JP-YAZ-Z8-19-003</v>
       </c>
       <c r="B4" t="s">
         <v>843</v>
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -13452,7 +13452,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -13535,7 +13535,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>565</v>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>566</v>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="C4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D4" s="127" t="s">
         <v>566</v>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="C5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D5" s="127" t="s">
         <v>566</v>
@@ -14150,7 +14150,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>565</v>
@@ -14231,7 +14231,7 @@
     <row r="3" spans="1:26">
       <c r="B3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>566</v>
@@ -14309,7 +14309,7 @@
     <row r="4" spans="1:26" s="125" customFormat="1">
       <c r="B4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="C4" s="127" t="s">
         <v>566</v>
@@ -14387,7 +14387,7 @@
     <row r="5" spans="1:26" s="125" customFormat="1">
       <c r="B5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>566</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -14690,7 +14690,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -14755,7 +14755,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="C2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>565</v>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="G2" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H2" s="186" t="s">
         <v>469</v>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="J2" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K2" t="s">
         <v>698</v>
@@ -14925,14 +14925,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="F3" t="s">
         <v>677</v>
       </c>
       <c r="G3" s="186">
         <f t="shared" ref="G3:G5" ca="1" si="0">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H3" s="186" t="s">
         <v>756</v>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="J3" s="186">
         <f t="shared" ref="J3:J5" ca="1" si="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K3" t="s">
         <v>698</v>
@@ -14962,14 +14962,14 @@
       <c r="C4" s="125"/>
       <c r="D4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="F4" t="s">
         <v>677</v>
       </c>
       <c r="G4" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H4" s="186" t="s">
         <v>757</v>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="J4" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K4" t="s">
         <v>698</v>
@@ -14999,14 +14999,14 @@
       <c r="C5" s="125"/>
       <c r="D5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="F5" t="s">
         <v>677</v>
       </c>
       <c r="G5" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H5" s="186" t="s">
         <v>758</v>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="J5" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K5" t="s">
         <v>698</v>
@@ -15211,7 +15211,7 @@
       </c>
       <c r="C2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>565</v>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="G2" s="186">
         <f t="shared" ref="G2:G5" ca="1" si="0">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H2" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -15232,7 +15232,7 @@
       </c>
       <c r="I2" s="186">
         <f t="shared" ref="I2:I5" ca="1" si="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J2" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -15254,7 +15254,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="E3" t="s">
         <v>548</v>
@@ -15264,7 +15264,7 @@
       </c>
       <c r="G3" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H3" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="I3" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J3" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -15294,7 +15294,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="E4" t="s">
         <v>548</v>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="G4" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H4" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -15312,7 +15312,7 @@
       </c>
       <c r="I4" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J4" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -15334,7 +15334,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>548</v>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="G5" s="230">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H5" s="228" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -15352,7 +15352,7 @@
       </c>
       <c r="I5" s="230">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J5" s="228" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC007-Received Req Info'!O2</f>
-        <v>S1D-Z6-26</v>
+        <v>S1D-Z8-19</v>
       </c>
     </row>
   </sheetData>
@@ -15477,11 +15477,11 @@
       </c>
       <c r="B2" s="186">
         <f ca="1">TODAY()+5</f>
-        <v>45245</v>
+        <v>45252</v>
       </c>
       <c r="C2" s="186">
         <f ca="1">TODAY()+5</f>
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15491,11 +15491,11 @@
       </c>
       <c r="B3" s="186">
         <f ca="1">TODAY()+5</f>
-        <v>45245</v>
+        <v>45252</v>
       </c>
       <c r="C3" s="186">
         <f ca="1">TODAY()+5</f>
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
   </sheetData>
@@ -15601,7 +15601,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>565</v>
@@ -15682,7 +15682,7 @@
     <row r="3" spans="1:26">
       <c r="B3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>566</v>
@@ -15760,7 +15760,7 @@
     <row r="4" spans="1:26" s="125" customFormat="1">
       <c r="B4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="C4" s="127" t="s">
         <v>566</v>
@@ -15838,7 +15838,7 @@
     <row r="5" spans="1:26" s="125" customFormat="1">
       <c r="B5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>566</v>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -16197,7 +16197,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -16280,7 +16280,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -16452,7 +16452,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -16584,7 +16584,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -16649,7 +16649,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -16715,7 +16715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3FAEA7-47D6-4A3A-B120-FBABC09E38F4}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+    <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:FW1048576"/>
     </sheetView>
   </sheetViews>
@@ -16806,7 +16806,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -16833,7 +16833,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -16860,7 +16860,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -16887,7 +16887,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -16914,7 +16914,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -16941,7 +16941,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -16968,7 +16968,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -17046,7 +17046,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -17070,7 +17070,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -17094,7 +17094,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -17400,7 +17400,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -17483,7 +17483,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -17853,7 +17853,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -17939,7 +17939,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC007-Received Req Info'!P2</f>
-        <v>S2D-Z6-26</v>
+        <v>S2D-Z8-19</v>
       </c>
     </row>
   </sheetData>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -18666,7 +18666,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -18749,7 +18749,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -18832,7 +18832,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -19589,7 +19589,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -19677,7 +19677,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z6s2</v>
+        <v>NYKU8417026Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -19763,7 +19763,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z6s2</v>
+        <v>JP-YAZ-C-230608001-Z8s2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -19849,7 +19849,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z6s2</v>
+        <v>EGSU9073529Z8s2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -20378,101 +20378,101 @@
     <row r="2" spans="1:5">
       <c r="A2" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B20" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z6-01-003</v>
+        <v>i-MY-PNA-DC-Z8-01-003</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="C11" s="130">
         <v>100.001</v>
@@ -20487,91 +20487,91 @@
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z6-01-001</v>
+        <v>i-MY-PNA-DC-Z8-01-001</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-002"</f>
-        <v>i-MY-PNA-DC-Z6-01-002</v>
+        <v>i-MY-PNA-DC-Z8-01-002</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-002"</f>
-        <v>i-MY-PNA-DC-Z6-01-002</v>
+        <v>i-MY-PNA-DC-Z8-01-002</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -20605,7 +20605,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="132">
         <v>250</v>
@@ -20614,7 +20614,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="132">
         <v>250</v>
@@ -20623,7 +20623,7 @@
     <row r="4" spans="1:2">
       <c r="A4" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="132">
         <v>250</v>
@@ -20632,7 +20632,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="132">
         <v>250</v>
@@ -20641,7 +20641,7 @@
     <row r="6" spans="1:2">
       <c r="A6" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B6" s="132">
         <v>250</v>
@@ -20650,7 +20650,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B7" s="132">
         <v>250</v>
@@ -20659,7 +20659,7 @@
     <row r="8" spans="1:2">
       <c r="A8" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B8" s="132">
         <v>250</v>
@@ -20695,14 +20695,14 @@
     <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DAY(TODAY()), "dd")</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -20738,7 +20738,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZD90"</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B2" s="134">
         <v>50</v>
@@ -20750,7 +20750,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZE00"</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="134">
         <v>50</v>
@@ -20762,7 +20762,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZK50"</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B4" s="134">
         <v>50</v>
@@ -20774,7 +20774,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B5" s="134">
         <v>50</v>
@@ -20786,7 +20786,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B6" s="134">
         <v>50</v>
@@ -20798,7 +20798,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B7" s="134">
         <v>50</v>
@@ -20810,7 +20810,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B8" s="134">
         <v>50</v>
@@ -20822,7 +20822,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B9" s="134">
         <v>50</v>
@@ -20834,7 +20834,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B10" s="134">
         <v>50</v>
@@ -20846,7 +20846,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B11" s="134">
         <v>50</v>
@@ -20881,7 +20881,7 @@
     <row r="2" spans="1:1">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -20984,7 +20984,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -21011,7 +21011,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -21038,7 +21038,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -21065,7 +21065,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -21092,7 +21092,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -21119,7 +21119,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -21146,7 +21146,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -21267,11 +21267,11 @@
     <row r="2" spans="1:24">
       <c r="A2" s="30" t="str">
         <f>"ELASUP-PNDC-"&amp;AutoIncrement!A2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
       <c r="B2" s="30" t="str">
         <f>A2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>4</v>
@@ -21392,7 +21392,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -21416,7 +21416,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -21440,7 +21440,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -21512,18 +21512,18 @@
     <row r="2" spans="1:9">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="C2" s="137" t="s">
         <v>190</v>
       </c>
       <c r="D2" s="137" t="str">
         <f>'TC021-Setup Data'!$A$2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="E2" s="137" t="s">
         <v>301</v>
@@ -21542,18 +21542,18 @@
     <row r="3" spans="1:9">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="C3" s="137" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="137" t="str">
         <f>'TC021-Setup Data'!$A$2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="E3" s="137" t="s">
         <v>301</v>
@@ -21572,18 +21572,18 @@
     <row r="4" spans="1:9">
       <c r="A4" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B4" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C4" s="137" t="s">
         <v>190</v>
       </c>
       <c r="D4" s="137" t="str">
         <f>'TC021-Setup Data'!$A$2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="E4" s="137" t="s">
         <v>302</v>
@@ -21630,7 +21630,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="136" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>11 11月 2023</v>
+        <v>18 Nov 2023</v>
       </c>
       <c r="B2" s="136">
         <f ca="1">EOMONTH(TODAY(),0)</f>
@@ -21674,7 +21674,7 @@
       </c>
       <c r="C2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="C3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
     </row>
   </sheetData>
@@ -21729,7 +21729,7 @@
       </c>
       <c r="C2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -21741,7 +21741,7 @@
       </c>
       <c r="C3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
     </row>
   </sheetData>
@@ -21784,7 +21784,7 @@
       </c>
       <c r="C2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="C3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
     </row>
   </sheetData>
@@ -21844,7 +21844,7 @@
       </c>
       <c r="D2" s="136" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>11 11月 2023</v>
+        <v>18 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -21950,11 +21950,11 @@
     <row r="2" spans="1:23">
       <c r="A2" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-PNA-DC-Z6-26-001</v>
+        <v>o-MY-PNA-DC-Z8-19-001</v>
       </c>
       <c r="B2" s="113" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D2" s="115">
         <v>100</v>
@@ -21963,7 +21963,7 @@
       <c r="F2" s="231"/>
       <c r="G2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -21989,11 +21989,11 @@
     <row r="3" spans="1:23">
       <c r="A3" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-PNA-DC-Z6-26-001</v>
+        <v>o-MY-PNA-DC-Z8-19-001</v>
       </c>
       <c r="B3" s="113" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D3" s="246">
         <v>40</v>
@@ -22002,7 +22002,7 @@
       <c r="F3" s="231"/>
       <c r="G3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>772</v>
@@ -22048,15 +22048,15 @@
     <row r="4" spans="1:23">
       <c r="A4" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-PNA-DC-Z6-26-002</v>
+        <v>o-MY-PNA-DC-Z8-19-002</v>
       </c>
       <c r="B4" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="C4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="D4" s="115">
         <v>100</v>
@@ -22118,15 +22118,15 @@
     <row r="5" spans="1:23">
       <c r="A5" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-PNA-DC-Z6-26-002</v>
+        <v>o-MY-PNA-DC-Z8-19-002</v>
       </c>
       <c r="B5" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="C5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="D5" s="115">
         <v>60</v>
@@ -22201,7 +22201,7 @@
     <row r="2" spans="1:2">
       <c r="A2" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-PNA-DC-Z6-26-001</v>
+        <v>o-MY-PNA-DC-Z8-19-001</v>
       </c>
       <c r="B2" t="s">
         <v>870</v>
@@ -22210,7 +22210,7 @@
     <row r="3" spans="1:2">
       <c r="A3" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-002"</f>
-        <v>o-MY-PNA-DC-Z6-26-002</v>
+        <v>o-MY-PNA-DC-Z8-19-002</v>
       </c>
       <c r="B3" t="s">
         <v>871</v>
@@ -22291,11 +22291,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -22341,11 +22341,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -22575,11 +22575,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -22625,11 +22625,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -22746,11 +22746,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!$B$2</f>
@@ -22796,11 +22796,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!$B$2</f>
@@ -22914,11 +22914,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!B3</f>
@@ -22964,11 +22964,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!B3</f>
@@ -23133,7 +23133,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -23218,7 +23218,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -23391,7 +23391,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -23592,7 +23592,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -23677,7 +23677,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -23850,7 +23850,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -24005,14 +24005,14 @@
       <c r="C2" s="113"/>
       <c r="D2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
       <c r="F2" s="184" t="s">
         <v>677</v>
       </c>
       <c r="G2" s="186">
         <f t="shared" ref="G2:G5" ca="1" si="0">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H2" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -24020,7 +24020,7 @@
       </c>
       <c r="I2" s="186">
         <f t="shared" ref="I2:I5" ca="1" si="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J2" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -24042,14 +24042,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
       <c r="F3" t="s">
         <v>677</v>
       </c>
       <c r="G3" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H3" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -24057,7 +24057,7 @@
       </c>
       <c r="I3" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J3" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -24078,7 +24078,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>776</v>
@@ -24088,7 +24088,7 @@
       </c>
       <c r="G4" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H4" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -24096,7 +24096,7 @@
       </c>
       <c r="I4" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J4" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -24117,7 +24117,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5"/>
@@ -24126,7 +24126,7 @@
       </c>
       <c r="G5" s="230">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H5" s="228" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -24134,7 +24134,7 @@
       </c>
       <c r="I5" s="230">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J5" s="228" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -24229,21 +24229,21 @@
     <row r="2" spans="1:8">
       <c r="A2" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-CUS-Z6-01-001</v>
+        <v>i-MY-PNA-CUS-Z8-01-001</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-002"</f>
-        <v>i-MY-PNA-CUS-Z6-01-002</v>
+        <v>i-MY-PNA-CUS-Z8-01-002</v>
       </c>
       <c r="B3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -24267,21 +24267,21 @@
     <row r="4" spans="1:8">
       <c r="A4" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-CUS-Z6-01-003</v>
+        <v>i-MY-PNA-CUS-Z8-01-003</v>
       </c>
       <c r="B4" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-004"</f>
-        <v>i-MY-PNA-CUS-Z6-01-004</v>
+        <v>i-MY-PNA-CUS-Z8-01-004</v>
       </c>
       <c r="B5" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -24370,11 +24370,11 @@
     <row r="2" spans="1:15">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -24417,11 +24417,11 @@
     <row r="3" spans="1:15">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -24516,7 +24516,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>"ELA 60 DAYS "&amp;AutoIncrement!A2</f>
-        <v>ELA 60 DAYS 26</v>
+        <v>ELA 60 DAYS 19</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -24603,11 +24603,11 @@
     <row r="2" spans="1:15">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -24650,11 +24650,11 @@
     <row r="3" spans="1:15">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -24765,11 +24765,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!$B$2</f>
@@ -24815,11 +24815,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!$B$2</f>
@@ -24933,11 +24933,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!$B$3</f>
@@ -24983,11 +24983,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!$B$3</f>
@@ -25060,20 +25060,20 @@
       <c r="A2" s="113"/>
       <c r="B2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>776</v>
@@ -25082,7 +25082,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -25139,7 +25139,7 @@
       <c r="C2" s="113"/>
       <c r="D2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
       <c r="E2" t="s">
         <v>563</v>
@@ -25159,7 +25159,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
       <c r="E3" t="s">
         <v>563</v>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>776</v>
@@ -25200,7 +25200,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" t="s">
@@ -25746,7 +25746,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -26004,7 +26004,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -26205,7 +26205,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z6s2</v>
+        <v>TLLU6124978Z8s2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z6s2</v>
+        <v>C-20130614001Z8s2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -26375,7 +26375,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -26463,7 +26463,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z6-26-001</v>
+        <v>B-NT-Z8-19-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -26776,15 +26776,15 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>518</v>
@@ -26794,7 +26794,7 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>114</v>
@@ -26837,15 +26837,15 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>248</v>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="G3" s="1" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>114</v>
@@ -26898,15 +26898,15 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>249</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="G4" s="1" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>20</v>
@@ -27076,7 +27076,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="B3" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -27094,7 +27094,7 @@
       </c>
       <c r="B4" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="B5" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
     </row>
   </sheetData>
@@ -27328,7 +27328,7 @@
       </c>
       <c r="C2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z6-26-001</v>
+        <v>Bs2-Z8-19-001</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>565</v>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="G2" s="186">
         <f t="shared" ref="G2:G5" ca="1" si="0">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H2" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -27349,7 +27349,7 @@
       </c>
       <c r="I2" s="186">
         <f t="shared" ref="I2:I5" ca="1" si="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J2" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -27380,7 +27380,7 @@
       </c>
       <c r="G3" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H3" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -27388,7 +27388,7 @@
       </c>
       <c r="I3" s="186">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J3" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="G4" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H4" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -27427,7 +27427,7 @@
       </c>
       <c r="I4" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J4" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -27458,7 +27458,7 @@
       </c>
       <c r="G5" s="186">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="H5" t="str">
         <f>'TC126-Setup'!$A$2</f>
@@ -27466,7 +27466,7 @@
       </c>
       <c r="I5" s="186">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="J5" t="str">
         <f>'TC126-Setup'!$B$2</f>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
@@ -27579,7 +27579,7 @@
       </c>
       <c r="C3" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6">
@@ -27614,7 +27614,7 @@
       </c>
       <c r="C4" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna18007703930"</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6">
@@ -27649,7 +27649,7 @@
       </c>
       <c r="C5" s="11" t="str">
         <f>AutoIncrement!B2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="D5" s="3">
         <v>45051040130</v>
@@ -27686,7 +27686,7 @@
       </c>
       <c r="C6" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pnaNSL2BLACK"</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -27758,7 +27758,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="str">
         <f>"ELASUP-"&amp;AutoIncrement!C2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
     </row>
   </sheetData>
@@ -27846,15 +27846,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>AutoIncrement!C2&amp;AutoIncrement!A2</f>
-        <v>Z6s126</v>
+        <v>Z8s119</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CD-Z6s126-26</v>
+        <v>CD-Z8s119-19</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC10.2'!C2&amp;"("&amp;'TC10.2'!D2&amp;")"</f>
-        <v>ELA 60 DAYS 26(60 DAYS BY INV DATE)</v>
+        <v>ELA 60 DAYS 19(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>144</v>
@@ -27867,11 +27867,11 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC010.1'!A2&amp;"("&amp;'TC010.1'!B2&amp;")"</f>
-        <v>ELASUP-PNDC-26(ELASUP-PNDC-26)</v>
+        <v>ELASUP-PNDC-19(ELASUP-PNDC-19)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>RD-Z6s126-26</v>
+        <v>RD-Z8s119-19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>148</v>
@@ -27978,11 +27978,11 @@
     <row r="2" spans="1:24">
       <c r="A2" s="32" t="str">
         <f>"YAZSUP-PNDC-"&amp;AutoIncrement!B2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
       <c r="B2" s="32" t="str">
         <f>A2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>4</v>
@@ -28222,7 +28222,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>"YAZ 60 DAYS "&amp;AutoIncrement!B2</f>
-        <v>YAZ 60 DAYS Z6</v>
+        <v>YAZ 60 DAYS Z8</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -28341,15 +28341,15 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>259</v>
@@ -28359,7 +28359,7 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>13</v>
@@ -28402,15 +28402,15 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>261</v>
@@ -28420,7 +28420,7 @@
       </c>
       <c r="G3" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>13</v>
@@ -28463,15 +28463,15 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>262</v>
@@ -28481,7 +28481,7 @@
       </c>
       <c r="G4" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -28524,15 +28524,15 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>263</v>
@@ -28542,7 +28542,7 @@
       </c>
       <c r="G5" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>6</v>
@@ -28686,15 +28686,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>AutoIncrement!E2&amp;AutoIncrement!A2</f>
-        <v>26s226</v>
+        <v>19s219</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CD-26s226-26</v>
+        <v>CD-19s219-19</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC11.2'!C2&amp;"("&amp;'TC11.2'!D2&amp;")"</f>
-        <v>YAZ 60 DAYS Z6(60 DAYS BY INV DATE)</v>
+        <v>YAZ 60 DAYS Z8(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>260</v>
@@ -28707,11 +28707,11 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC011.1'!A2&amp;"("&amp;'TC011.1'!A2&amp;")"</f>
-        <v>YAZSUP-PNDC-Z6(YAZSUP-PNDC-Z6)</v>
+        <v>YAZSUP-PNDC-Z8(YAZSUP-PNDC-Z8)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-"&amp;AutoIncrement!D2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>RD-Z6s2-26</v>
+        <v>RD-Z8s2-19</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>146</v>
@@ -28760,7 +28760,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="str">
         <f>"JPYAZ-"&amp;AutoIncrement!D2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
     </row>
   </sheetData>
@@ -28857,19 +28857,19 @@
     <row r="2" spans="1:22" ht="27.6">
       <c r="A2" s="8" t="str">
         <f>'TC011'!B2</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC011'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC011'!C2</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC011'!B2</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>715</v>
@@ -28882,7 +28882,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>20</v>
@@ -28924,19 +28924,19 @@
     <row r="3" spans="1:22" ht="27.6">
       <c r="A3" s="8" t="str">
         <f>'TC011'!B3</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC011'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC011'!C3</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC011'!B3</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>716</v>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>20</v>
@@ -28991,19 +28991,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC011'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC011'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC011'!C4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC011'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>43</v>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>22000</v>
@@ -29146,19 +29146,19 @@
     <row r="2" spans="1:22">
       <c r="A2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC012'!D2</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC012'!C2</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D5</f>
@@ -29172,7 +29172,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>100</v>
@@ -29214,19 +29214,19 @@
     <row r="3" spans="1:22">
       <c r="A3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC012'!D3</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC012'!C3</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D6</f>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>1500</v>
@@ -29282,19 +29282,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC012'!D4</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC012'!C4</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D7</f>
@@ -29308,7 +29308,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>6000</v>
@@ -29350,19 +29350,19 @@
     <row r="5" spans="1:22">
       <c r="A5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>'TC012'!D5</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>'TC012'!C5</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D8</f>
@@ -29376,7 +29376,7 @@
       </c>
       <c r="H5" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K5" s="37">
         <v>20</v>
@@ -29481,11 +29481,11 @@
       </c>
       <c r="C2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="D2" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>43</v>
@@ -29518,11 +29518,11 @@
       </c>
       <c r="C3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>48</v>
@@ -29555,11 +29555,11 @@
       </c>
       <c r="C4" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>52</v>
@@ -29592,11 +29592,11 @@
       </c>
       <c r="C5" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="D5" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>56</v>
@@ -29629,11 +29629,11 @@
       </c>
       <c r="C6" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="D6" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>60</v>
@@ -29769,7 +29769,7 @@
     <row r="2" spans="1:25">
       <c r="A2" s="24" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
@@ -29800,15 +29800,15 @@
       </c>
       <c r="N2" t="str">
         <f>'TC011-Received Req Info (SUP1)'!F2</f>
-        <v>Z6s126</v>
+        <v>Z8s119</v>
       </c>
       <c r="O2" t="str">
         <f>'TC011-Received Req Info (SUP1)'!G2</f>
-        <v>CD-Z6s126-26</v>
+        <v>CD-Z8s119-19</v>
       </c>
       <c r="P2" t="str">
         <f>'TC10.2'!C2&amp;"("&amp;'TC10.2'!D2&amp;")"</f>
-        <v>ELA 60 DAYS 26(60 DAYS BY INV DATE)</v>
+        <v>ELA 60 DAYS 19(60 DAYS BY INV DATE)</v>
       </c>
       <c r="R2" t="s">
         <v>144</v>
@@ -29821,7 +29821,7 @@
       </c>
       <c r="V2" s="39" t="str">
         <f>'TC010.1'!A2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
       <c r="W2" t="s">
         <v>148</v>
@@ -29921,19 +29921,19 @@
     <row r="2" spans="1:22" ht="27.6">
       <c r="A2" s="8" t="str">
         <f>'TC011'!$C2</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC011'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC011'!C2</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC011'!B2</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="40" t="str">
         <f>'TC011'!E2</f>
@@ -29947,7 +29947,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>20</v>
@@ -29989,19 +29989,19 @@
     <row r="3" spans="1:22" ht="27.6">
       <c r="A3" s="8" t="str">
         <f>'TC011'!$C3</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC011'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC011'!C3</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC011'!B3</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="40" t="str">
         <f>'TC011'!E3</f>
@@ -30015,7 +30015,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>20</v>
@@ -30057,19 +30057,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC011'!$C4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC011'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC011'!C4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC011'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E4" s="40" t="str">
         <f>'TC011'!E4</f>
@@ -30083,7 +30083,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>22000</v>
@@ -30238,7 +30238,7 @@
     <row r="2" spans="1:30">
       <c r="A2" s="24" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="B2" t="s">
         <v>150</v>
@@ -30269,19 +30269,19 @@
       </c>
       <c r="N2" t="str">
         <f>'TC012-Received Req Info (SUP2)'!F2</f>
-        <v>26s226</v>
+        <v>19s219</v>
       </c>
       <c r="O2" t="str">
         <f>'TC012-Received Req Info (SUP2)'!G2</f>
-        <v>CD-26s226-26</v>
+        <v>CD-19s219-19</v>
       </c>
       <c r="P2" t="str">
         <f>'TC11.2'!C2&amp;"("&amp;'TC11.2'!D2&amp;")"</f>
-        <v>YAZ 60 DAYS Z6(60 DAYS BY INV DATE)</v>
+        <v>YAZ 60 DAYS Z8(60 DAYS BY INV DATE)</v>
       </c>
       <c r="Q2" t="str">
         <f>'TC11.2'!C2&amp;"("&amp;'TC11.2'!D2&amp;")"</f>
-        <v>YAZ 60 DAYS Z6(60 DAYS BY INV DATE)</v>
+        <v>YAZ 60 DAYS Z8(60 DAYS BY INV DATE)</v>
       </c>
       <c r="R2" t="s">
         <v>260</v>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="V2" s="39" t="str">
         <f>'TC011.1'!A2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
       <c r="W2" t="s">
         <v>146</v>
@@ -30406,19 +30406,19 @@
     <row r="2" spans="1:22">
       <c r="A2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC012'!D2</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC012'!C2</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>'TC012'!E2</f>
@@ -30432,7 +30432,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>100</v>
@@ -30474,19 +30474,19 @@
     <row r="3" spans="1:22">
       <c r="A3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC012'!D3</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC012'!C3</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>'TC012'!E3</f>
@@ -30500,7 +30500,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>1500</v>
@@ -30542,19 +30542,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC012'!D4</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC012'!C4</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>'TC012'!E4</f>
@@ -30568,7 +30568,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>6000</v>
@@ -30610,19 +30610,19 @@
     <row r="5" spans="1:22">
       <c r="A5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>'TC012'!D5</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>'TC012'!C5</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>'TC012'!E5</f>
@@ -30636,7 +30636,7 @@
       </c>
       <c r="H5" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11月 10, 2023</v>
+        <v>Nov 17, 2023</v>
       </c>
       <c r="K5" s="37">
         <v>20</v>
@@ -30739,18 +30739,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -30760,7 +30760,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -30769,18 +30769,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -30790,7 +30790,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -30799,18 +30799,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -30820,24 +30820,24 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>167</v>
@@ -30847,24 +30847,24 @@
       </c>
       <c r="J5" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="D6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G6" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>167</v>
@@ -30874,24 +30874,24 @@
       </c>
       <c r="J6" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G7" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>167</v>
@@ -30901,24 +30901,24 @@
       </c>
       <c r="J7" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="D8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G8" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>167</v>
@@ -30928,7 +30928,7 @@
       </c>
       <c r="J8" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
     </row>
   </sheetData>
@@ -31011,18 +31011,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E2" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C2</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -31032,14 +31032,14 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K2" s="43" t="s">
         <v>145</v>
       </c>
       <c r="L2" s="44" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>167</v>
@@ -31049,7 +31049,7 @@
       </c>
       <c r="O2" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -31058,18 +31058,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E3" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C3</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -31079,14 +31079,14 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K3" s="43" t="s">
         <v>145</v>
       </c>
       <c r="L3" s="44" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>167</v>
@@ -31096,7 +31096,7 @@
       </c>
       <c r="O3" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -31105,18 +31105,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E4" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -31126,14 +31126,14 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K4" s="43" t="s">
         <v>145</v>
       </c>
       <c r="L4" s="44" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="M4" s="30" t="s">
         <v>167</v>
@@ -31143,24 +31143,24 @@
       </c>
       <c r="O4" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="D5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E5" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>167</v>
@@ -31170,14 +31170,14 @@
       </c>
       <c r="J5" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K5" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L5" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>167</v>
@@ -31187,24 +31187,24 @@
       </c>
       <c r="O5" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="D6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E6" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>167</v>
@@ -31214,14 +31214,14 @@
       </c>
       <c r="J6" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L6" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>167</v>
@@ -31231,24 +31231,24 @@
       </c>
       <c r="O6" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="D7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E7" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>167</v>
@@ -31258,14 +31258,14 @@
       </c>
       <c r="J7" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K7" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L7" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>167</v>
@@ -31275,24 +31275,24 @@
       </c>
       <c r="O7" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="D8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E8" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>167</v>
@@ -31302,14 +31302,14 @@
       </c>
       <c r="J8" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K8" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L8" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>167</v>
@@ -31319,7 +31319,7 @@
       </c>
       <c r="O8" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
   </sheetData>
@@ -31387,18 +31387,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC011'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E2" s="45" t="str">
         <f>'TC011'!C2</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -31408,7 +31408,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -31417,18 +31417,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="10" t="str">
         <f>'TC011'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E3" s="45" t="str">
         <f>'TC011'!C3</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -31438,7 +31438,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31447,18 +31447,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="10" t="str">
         <f>'TC011'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E4" s="45" t="str">
         <f>'TC011'!C4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -31468,7 +31468,7 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-26</v>
+        <v>ELASUP-PNDC-19</v>
       </c>
     </row>
   </sheetData>
@@ -31536,18 +31536,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC012'!D2</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>'TC012'!C2</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -31557,24 +31557,24 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3" s="10" t="str">
         <f>'TC012'!D3</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>'TC012'!C3</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -31584,24 +31584,24 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="D4" s="10" t="str">
         <f>'TC012'!D4</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>'TC012'!C4</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -31611,24 +31611,24 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5" s="10" t="str">
         <f>'TC012'!D5</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>'TC012'!C5</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>167</v>
@@ -31638,7 +31638,7 @@
       </c>
       <c r="J5" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z6</v>
+        <v>YAZSUP-PNDC-Z8</v>
       </c>
     </row>
   </sheetData>
@@ -31708,7 +31708,7 @@
       </c>
       <c r="B2" s="11" t="str">
         <f>AutoIncrement!$B$2&amp;"82151-BZD90"</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>297</v>
@@ -31750,7 +31750,7 @@
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!$B$2&amp;"82151-BZE00"</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>301</v>
@@ -31792,7 +31792,7 @@
       </c>
       <c r="B4" s="11" t="str">
         <f>AutoIncrement!$B$2&amp;"82151-BZK50"</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>302</v>
@@ -31871,7 +31871,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-Request L2 Parts"</f>
-        <v>Z6-26-Request L2 Parts</v>
+        <v>Z8-19-Request L2 Parts</v>
       </c>
     </row>
   </sheetData>
@@ -31929,7 +31929,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>"FN 60 DAYS-"&amp;AutoIncrement!B2</f>
-        <v>FN 60 DAYS-Z6</v>
+        <v>FN 60 DAYS-Z8</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -32053,18 +32053,18 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151-BZD90"</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZD90"</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E2" s="49" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>149</v>
@@ -32098,18 +32098,18 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151-BZE00"</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZE00"</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E3" s="49" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>149</v>
@@ -32143,18 +32143,18 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151-BZK50"</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151BZK50"</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>303</v>
       </c>
       <c r="E4" s="49" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>149</v>
@@ -32275,15 +32275,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>'TC021-Setup Data'!B2</f>
-        <v>Z6L226</v>
+        <v>Z8L219</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-01-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CD-01-Z6L226-26</v>
+        <v>CD-01-Z8L219-19</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC007-Received Req Info'!H2</f>
-        <v>FN 60 DAYS-Z6(60 DAYS BY INV DATE)</v>
+        <v>FN 60 DAYS-Z8(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>144</v>
@@ -32296,11 +32296,11 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC007-Received Req Info'!L2</f>
-        <v>PNDC-PNCUS-Z6(PNDC-PNCUS-Z6)</v>
+        <v>PNDC-PNCUS-Z8(PNDC-PNCUS-Z8)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-01-"&amp;F2&amp;""</f>
-        <v>RD-01-Z6L226</v>
+        <v>RD-01-Z8L219</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>148</v>
@@ -32340,11 +32340,11 @@
     <row r="2" spans="1:2">
       <c r="A2" s="49" t="str">
         <f>"PNABU-L2-"&amp;AutoIncrement!B2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"L2"&amp;AutoIncrement!A2</f>
-        <v>Z6L226</v>
+        <v>Z8L219</v>
       </c>
     </row>
   </sheetData>
@@ -32427,18 +32427,18 @@
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!B2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -32448,7 +32448,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K2" s="43"/>
       <c r="L2" s="44"/>
@@ -32462,18 +32462,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!B3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -32483,7 +32483,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K3" s="43"/>
       <c r="L3" s="44"/>
@@ -32497,18 +32497,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!B4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -32518,7 +32518,7 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
@@ -32585,19 +32585,19 @@
     <row r="2" spans="1:11">
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"82151BZD90"</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"82151BZE00"</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"82151BZK50"</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -32606,7 +32606,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>148</v>
@@ -32642,7 +32642,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna18001404835"</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>148</v>
@@ -32678,7 +32678,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna18007703930"</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>146</v>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>146</v>
@@ -32750,7 +32750,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pnaNSL2BLACK"</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>148</v>
@@ -32786,7 +32786,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>148</v>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>148</v>
@@ -32905,11 +32905,11 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="D2" s="189">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -32921,7 +32921,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z6-026</v>
+        <v>PNABU-L2-Z8-019</v>
       </c>
     </row>
   </sheetData>
@@ -32980,7 +32980,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -33004,7 +33004,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -33028,7 +33028,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -33052,7 +33052,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -33076,7 +33076,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -33100,7 +33100,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -33124,7 +33124,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -33190,7 +33190,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -33214,7 +33214,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -33238,7 +33238,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -33436,11 +33436,11 @@
     <row r="2" spans="1:20" s="15" customFormat="1">
       <c r="A2" s="12" t="str">
         <f>"PNDC-PNCUS-"&amp;AutoIncrement!B2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>A2</f>
-        <v>PNDC-PNCUS-Z6</v>
+        <v>PNDC-PNCUS-Z8</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>4</v>
@@ -33530,7 +33530,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="str">
         <f>'TC20-Req Add New Part (L2)'!B2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>327</v>
@@ -33542,7 +33542,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="str">
         <f>'TC20-Req Add New Part (L2)'!B3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>327</v>
@@ -33554,7 +33554,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="str">
         <f>'TC20-Req Add New Part (L2)'!B4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>328</v>
@@ -33672,7 +33672,7 @@
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>327</v>
@@ -33690,7 +33690,7 @@
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>327</v>
@@ -33708,7 +33708,7 @@
       </c>
       <c r="B4" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>327</v>
@@ -33726,7 +33726,7 @@
       </c>
       <c r="B5" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>328</v>
@@ -33792,7 +33792,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>327</v>
@@ -33802,18 +33802,18 @@
       </c>
       <c r="D2" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G2" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H2" s="56">
         <v>10</v>
@@ -33822,7 +33822,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>327</v>
@@ -33832,18 +33832,18 @@
       </c>
       <c r="D3" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H3" s="56">
         <v>6</v>
@@ -33852,7 +33852,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>328</v>
@@ -33862,18 +33862,18 @@
       </c>
       <c r="D4" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G4" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H4" s="56">
         <v>10</v>
@@ -33882,7 +33882,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>327</v>
@@ -33892,18 +33892,18 @@
       </c>
       <c r="D5" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E5" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G5" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H5" s="56">
         <v>0</v>
@@ -33912,7 +33912,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>327</v>
@@ -33922,18 +33922,18 @@
       </c>
       <c r="D6" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E6" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G6" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H6" s="56">
         <v>6</v>
@@ -33942,7 +33942,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>328</v>
@@ -33952,18 +33952,18 @@
       </c>
       <c r="D7" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G7" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H7" s="56">
         <v>20</v>
@@ -33972,7 +33972,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>327</v>
@@ -33982,18 +33982,18 @@
       </c>
       <c r="D8" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G8" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="H8" s="56">
         <v>0</v>
@@ -34002,7 +34002,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>327</v>
@@ -34012,18 +34012,18 @@
       </c>
       <c r="D9" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G9" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="H9" s="56">
         <v>1</v>
@@ -34032,7 +34032,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>328</v>
@@ -34042,18 +34042,18 @@
       </c>
       <c r="D10" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="H10" s="56">
         <v>1</v>
@@ -34062,7 +34062,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>327</v>
@@ -34072,18 +34072,18 @@
       </c>
       <c r="D11" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E11" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G11" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="H11" s="56">
         <v>0.64800000000000002</v>
@@ -34092,7 +34092,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>327</v>
@@ -34102,18 +34102,18 @@
       </c>
       <c r="D12" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F12" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G12" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="H12" s="56">
         <v>2</v>
@@ -34122,7 +34122,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>328</v>
@@ -34132,18 +34132,18 @@
       </c>
       <c r="D13" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="H13" s="56">
         <v>2</v>
@@ -34152,7 +34152,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>327</v>
@@ -34162,18 +34162,18 @@
       </c>
       <c r="D14" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F14" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G14" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="H14" s="56">
         <v>1.5329999999999999</v>
@@ -34182,7 +34182,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>327</v>
@@ -34192,18 +34192,18 @@
       </c>
       <c r="D15" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F15" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G15" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="H15" s="56">
         <v>3</v>
@@ -34212,7 +34212,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>328</v>
@@ -34222,18 +34222,18 @@
       </c>
       <c r="D16" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="H16" s="56">
         <v>3</v>
@@ -34242,7 +34242,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>327</v>
@@ -34252,18 +34252,18 @@
       </c>
       <c r="D17" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G17" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -34272,7 +34272,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>327</v>
@@ -34282,18 +34282,18 @@
       </c>
       <c r="D18" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G18" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="H18" s="56">
         <v>4</v>
@@ -34302,7 +34302,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>328</v>
@@ -34312,18 +34312,18 @@
       </c>
       <c r="D19" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E19" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F19" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G19" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="H19" s="56">
         <v>4</v>
@@ -34332,7 +34332,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>327</v>
@@ -34342,18 +34342,18 @@
       </c>
       <c r="D20" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E20" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F20" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="H20" s="56">
         <v>2</v>
@@ -34362,7 +34362,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>327</v>
@@ -34372,18 +34372,18 @@
       </c>
       <c r="D21" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E21" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G21" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="H21" s="56">
         <v>5</v>
@@ -34392,7 +34392,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>328</v>
@@ -34402,18 +34402,18 @@
       </c>
       <c r="D22" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F22" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="G22" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="H22" s="56">
         <v>6</v>
@@ -34465,7 +34465,7 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z682151-BZD90</v>
+        <v>Z882151-BZD90</v>
       </c>
       <c r="B2" s="63">
         <v>50</v>
@@ -34489,7 +34489,7 @@
     <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z682151-BZE00</v>
+        <v>Z882151-BZE00</v>
       </c>
       <c r="B3" s="63">
         <v>3109.0909999999999</v>
@@ -34513,7 +34513,7 @@
     <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z682151-BZK50</v>
+        <v>Z882151-BZK50</v>
       </c>
       <c r="B4" s="63">
         <v>1000</v>
@@ -34565,7 +34565,7 @@
       </c>
       <c r="B2" t="str">
         <f>"PR-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>PR-Z6-26</v>
+        <v>PR-Z8-19</v>
       </c>
     </row>
   </sheetData>
@@ -34618,7 +34618,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="66">
         <v>29154.55</v>
@@ -34642,7 +34642,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="66">
         <v>38654.550000000003</v>
@@ -34666,7 +34666,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="67">
         <v>4109</v>
@@ -34690,7 +34690,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="66">
         <v>8250.58</v>
@@ -34714,7 +34714,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B6" s="66">
         <v>12403.92</v>
@@ -34738,7 +34738,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B7" s="66">
         <v>16486.36</v>
@@ -34762,7 +34762,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B8" s="67">
         <v>21645</v>
@@ -34809,61 +34809,61 @@
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
     </row>
   </sheetData>
@@ -34966,7 +34966,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -34993,7 +34993,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -35020,7 +35020,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -35047,7 +35047,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -35074,7 +35074,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -35101,7 +35101,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -35128,7 +35128,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -35209,7 +35209,7 @@
     <row r="2" spans="1:9">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -35236,7 +35236,7 @@
     <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -35263,7 +35263,7 @@
     <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -35372,7 +35372,7 @@
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-1"</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-2"</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>116</v>
@@ -35422,7 +35422,7 @@
       </c>
       <c r="B3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-2"</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
@@ -35445,7 +35445,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-1"</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>116</v>
@@ -35472,11 +35472,11 @@
       </c>
       <c r="B4" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>'TC002'!D2</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
@@ -35520,11 +35520,11 @@
       </c>
       <c r="B5" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>'TC002'!D3</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>48</v>
@@ -35568,11 +35568,11 @@
       </c>
       <c r="B6" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="C6" s="10" t="str">
         <f>'TC002'!D4</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>52</v>
@@ -35616,11 +35616,11 @@
       </c>
       <c r="B7" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="C7" s="10" t="str">
         <f>'TC002'!D5</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>56</v>
@@ -35664,11 +35664,11 @@
       </c>
       <c r="B8" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="C8" s="10" t="str">
         <f>'TC002'!D6</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>60</v>
@@ -35785,7 +35785,7 @@
       </c>
       <c r="D2" s="18" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-OCGN"</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>99</v>
@@ -35910,7 +35910,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>317</v>
@@ -35944,7 +35944,7 @@
       </c>
       <c r="M2" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>377</v>
@@ -35971,7 +35971,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>317</v>
@@ -36005,7 +36005,7 @@
       </c>
       <c r="M3" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="N3" s="30" t="s">
         <v>377</v>
@@ -36032,7 +36032,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>317</v>
@@ -36066,7 +36066,7 @@
       </c>
       <c r="M4" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="N4" s="30" t="s">
         <v>381</v>
@@ -36093,7 +36093,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>317</v>
@@ -36127,7 +36127,7 @@
       </c>
       <c r="M5" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>384</v>
@@ -36154,7 +36154,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>317</v>
@@ -36188,7 +36188,7 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>377</v>
@@ -36215,7 +36215,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>317</v>
@@ -36249,7 +36249,7 @@
       </c>
       <c r="M7" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>377</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>317</v>
@@ -36310,7 +36310,7 @@
       </c>
       <c r="M8" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>377</v>
@@ -36390,14 +36390,14 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z6-26-OCGN</v>
+        <v>Z8-19-OCGN</v>
       </c>
       <c r="C2" s="77">
         <v>45180</v>
       </c>
       <c r="D2" s="189">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="E2" s="1">
         <v>21</v>
@@ -36459,7 +36459,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="190">
         <v>140000000</v>
@@ -36480,7 +36480,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="190">
         <v>140000000</v>
@@ -36501,7 +36501,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="190">
         <v>44000</v>
@@ -36522,7 +36522,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="190">
         <v>49000</v>
@@ -36543,7 +36543,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B6" s="190">
         <v>75000</v>
@@ -36564,7 +36564,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B7" s="190">
         <v>102000</v>
@@ -36585,7 +36585,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B8" s="190">
         <v>140</v>
@@ -36648,22 +36648,22 @@
     <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="81" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="D2" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E2" s="82" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()-1)), "dd MMM yyyy")</f>
-        <v>09 11月 2023</v>
+        <v>16 Nov 2023</v>
       </c>
       <c r="F2" s="83">
         <v>-10</v>
@@ -36672,22 +36672,22 @@
     <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="81" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="D3" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E3" s="82" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()-2)), "dd MMM yyyy")</f>
-        <v>08 11月 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="F3" s="83">
         <v>-100</v>
@@ -36726,11 +36726,11 @@
     <row r="2" spans="1:3">
       <c r="A2" s="86" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="C2" s="88">
         <v>100</v>
@@ -36739,11 +36739,11 @@
     <row r="3" spans="1:3">
       <c r="A3" s="86" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="C3" s="88">
         <v>100</v>
@@ -36752,11 +36752,11 @@
     <row r="4" spans="1:3">
       <c r="A4" s="86" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B4" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="C4" s="88">
         <v>100</v>
@@ -36862,7 +36862,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -36889,7 +36889,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -36916,7 +36916,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -36943,7 +36943,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -36970,7 +36970,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -36997,7 +36997,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -37024,7 +37024,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -37106,7 +37106,7 @@
     <row r="2" spans="1:9">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -37133,7 +37133,7 @@
     <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -37160,7 +37160,7 @@
     <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -37226,7 +37226,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="190">
         <v>140085460</v>
@@ -37247,7 +37247,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="190">
         <v>140085460</v>
@@ -37268,7 +37268,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="190">
         <v>44000</v>
@@ -37289,7 +37289,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="190">
         <v>49500</v>
@@ -37310,7 +37310,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B6" s="190">
         <v>75000</v>
@@ -37331,7 +37331,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B7" s="190">
         <v>102000</v>
@@ -37352,7 +37352,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B8" s="190">
         <v>140</v>
@@ -37421,18 +37421,18 @@
     <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="137" t="str">
         <f>'TC002'!$D$2</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B2" s="92" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="81" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="D2" s="137" t="str">
         <f>'TC002'!$C$2</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E2" s="92"/>
       <c r="F2" s="92" t="s">
@@ -37443,7 +37443,7 @@
       </c>
       <c r="H2" s="82" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()-2)), "dd MMM yyyy")</f>
-        <v>08 11月 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="I2" s="93">
         <v>66</v>
@@ -37476,7 +37476,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-Request L3 Parts"</f>
-        <v>Z6-26-Request L3 Parts</v>
+        <v>Z8-19-Request L3 Parts</v>
       </c>
     </row>
   </sheetData>
@@ -37579,7 +37579,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -37606,7 +37606,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -37633,7 +37633,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -37660,7 +37660,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -37687,7 +37687,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -37714,7 +37714,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -37741,7 +37741,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -37819,7 +37819,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z682151BZK50</v>
+        <v>Z882151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -37843,7 +37843,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z682151BZE00</v>
+        <v>Z882151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -37867,7 +37867,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z682151BZD90</v>
+        <v>Z882151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -37930,7 +37930,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="190">
         <v>140085460</v>
@@ -37951,7 +37951,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="190">
         <v>140085460</v>
@@ -37972,7 +37972,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="190">
         <v>44000</v>
@@ -37993,7 +37993,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="190">
         <v>49500</v>
@@ -38014,7 +38014,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B6" s="190">
         <v>75000</v>
@@ -38035,7 +38035,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B7" s="190">
         <v>102000</v>
@@ -38056,7 +38056,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B8" s="190">
         <v>140</v>
@@ -38122,7 +38122,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC034-Create Order Calculation'!I2</f>
@@ -38130,7 +38130,7 @@
       </c>
       <c r="C2" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="D2" s="191">
         <v>140085460</v>
@@ -38144,7 +38144,7 @@
     <row r="3" spans="1:7">
       <c r="C3" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="D3" s="191">
         <v>140085460</v>
@@ -38158,7 +38158,7 @@
     <row r="4" spans="1:7">
       <c r="C4" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="D4" s="191">
         <v>44000</v>
@@ -38172,7 +38172,7 @@
     <row r="5" spans="1:7">
       <c r="C5" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="D5" s="191">
         <v>49500</v>
@@ -38186,7 +38186,7 @@
     <row r="6" spans="1:7">
       <c r="C6" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="D6" s="191">
         <v>75000</v>
@@ -38200,7 +38200,7 @@
     <row r="7" spans="1:7">
       <c r="C7" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="D7" s="191">
         <v>102000</v>
@@ -38214,7 +38214,7 @@
     <row r="8" spans="1:7">
       <c r="C8" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="D8" s="191">
         <v>140</v>
@@ -38259,7 +38259,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="B3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -38277,7 +38277,7 @@
       </c>
       <c r="B4" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
     </row>
   </sheetData>
@@ -38347,7 +38347,7 @@
       </c>
       <c r="C2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="D2" s="196" t="s">
         <v>704</v>
@@ -38369,7 +38369,7 @@
       </c>
       <c r="J2" s="198">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
@@ -38382,7 +38382,7 @@
       </c>
       <c r="C3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="D3" s="196" t="s">
         <v>704</v>
@@ -38404,7 +38404,7 @@
       </c>
       <c r="J3" s="198">
         <f t="shared" ref="J3:J4" ca="1" si="0">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
@@ -38417,7 +38417,7 @@
       </c>
       <c r="C4" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="D4" s="196" t="s">
         <v>704</v>
@@ -38439,7 +38439,7 @@
       </c>
       <c r="J4" s="198">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
   </sheetData>
@@ -38476,7 +38476,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
     </row>
   </sheetData>
@@ -38509,7 +38509,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="100">
         <v>2.0019999999999998</v>
@@ -38518,7 +38518,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="100">
         <v>1.0009999999999999</v>
@@ -38527,7 +38527,7 @@
     <row r="4" spans="1:2">
       <c r="A4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="100">
         <v>1.0009999999999999</v>
@@ -38634,7 +38634,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="102" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>428</v>
@@ -38644,11 +38644,11 @@
       <c r="E2" s="101"/>
       <c r="F2" s="102" t="str">
         <f>'TC011'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="G2" s="102" t="str">
         <f>'TC011'!C2</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-1</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H2" s="101"/>
       <c r="I2" s="101" t="str">
@@ -38707,7 +38707,7 @@
     <row r="3" spans="1:25" ht="43.2">
       <c r="A3" s="101" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
@@ -38715,11 +38715,11 @@
       <c r="E3" s="101"/>
       <c r="F3" s="102" t="str">
         <f>'TC011'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>'TC011'!C3</f>
-        <v>Z6SUP-PNATEST,20230605000000000000-2</v>
+        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H3" s="101"/>
       <c r="I3" s="101" t="str">
@@ -38783,11 +38783,11 @@
       <c r="E4" s="101"/>
       <c r="F4" s="102" t="str">
         <f>'TC011'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>'TC011'!C4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="H4" s="101"/>
       <c r="I4" s="101" t="str">
@@ -38943,7 +38943,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -38970,7 +38970,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -38997,7 +38997,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -39024,7 +39024,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -39051,7 +39051,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -39078,7 +39078,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -39105,7 +39105,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -39319,7 +39319,7 @@
     <row r="2" spans="1:36">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -39428,7 +39428,7 @@
     <row r="3" spans="1:36">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -39537,7 +39537,7 @@
     <row r="4" spans="1:36">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -39690,11 +39690,11 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>"S10TC58 "&amp;AutoIncrement!B2</f>
-        <v>S10TC58 Z6</v>
+        <v>S10TC58 Z8</v>
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="141">
         <v>20</v>
@@ -39715,7 +39715,7 @@
     <row r="3" spans="1:7">
       <c r="B3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="141">
         <v>40</v>
@@ -39736,7 +39736,7 @@
     <row r="4" spans="1:7">
       <c r="B4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="141">
         <v>44000</v>
@@ -39831,7 +39831,7 @@
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="142">
         <f>TC058n59!C2</f>
@@ -39857,11 +39857,11 @@
     <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>TC058n59!A2</f>
-        <v>S10TC58 Z6</v>
+        <v>S10TC58 Z8</v>
       </c>
       <c r="B3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="142">
         <f>TC058n59!C3</f>
@@ -39887,7 +39887,7 @@
     <row r="4" spans="1:7">
       <c r="B4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="142">
         <f>TC058n59!C4</f>
@@ -39952,11 +39952,11 @@
     <row r="2" spans="1:5">
       <c r="A2" t="str">
         <f>"S10TC61 "&amp;AutoIncrement!B2</f>
-        <v>S10TC61 Z6</v>
+        <v>S10TC61 Z8</v>
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="C2" s="146">
         <v>1</v>
@@ -39971,7 +39971,7 @@
     <row r="3" spans="1:5">
       <c r="B3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="C3" s="144">
         <v>10.000999999999999</v>
@@ -39983,7 +39983,7 @@
     <row r="4" spans="1:5">
       <c r="B4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="C4" s="144">
         <v>2.0019999999999998</v>
@@ -40034,11 +40034,11 @@
     <row r="2" spans="1:5">
       <c r="A2" t="str">
         <f>"S10TC63 "&amp;AutoIncrement!B2</f>
-        <v>S10TC63 Z6</v>
+        <v>S10TC63 Z8</v>
       </c>
       <c r="B2" s="194" t="str">
         <f>'TC001'!C3</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C2" s="147">
         <v>1.23</v>
@@ -40084,11 +40084,11 @@
     <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f>"S10TC65 "&amp;AutoIncrement!B2</f>
-        <v>S10TC65 Z6</v>
+        <v>S10TC65 Z8</v>
       </c>
       <c r="B2" s="194" t="str">
         <f>'TC001'!C3</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C2" t="s">
         <v>815</v>
@@ -40127,11 +40127,11 @@
     <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f>"S10TC67 "&amp;AutoIncrement!B2</f>
-        <v>S10TC67 Z6</v>
+        <v>S10TC67 Z8</v>
       </c>
       <c r="B2" s="194" t="str">
         <f>'TC001'!C3</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="C2" t="s">
         <v>816</v>
@@ -40188,11 +40188,11 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="C2" s="151" t="s">
         <v>317</v>
@@ -40216,11 +40216,11 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>317</v>
@@ -40244,11 +40244,11 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="C4" s="151" t="s">
         <v>317</v>
@@ -40272,11 +40272,11 @@
     <row r="5" spans="1:8">
       <c r="A5" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="B5" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="C5" s="151" t="s">
         <v>317</v>
@@ -40300,11 +40300,11 @@
     <row r="6" spans="1:8">
       <c r="A6" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B6" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="C6" s="151" t="s">
         <v>317</v>
@@ -40328,11 +40328,11 @@
     <row r="7" spans="1:8">
       <c r="A7" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B7" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="C7" s="151" t="s">
         <v>317</v>
@@ -40356,11 +40356,11 @@
     <row r="8" spans="1:8" ht="13.8" customHeight="1">
       <c r="A8" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B8" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="C8" s="151" t="s">
         <v>317</v>
@@ -40511,15 +40511,15 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-1"</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-1</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-1</v>
+        <v>Z8BU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>142</v>
@@ -40529,7 +40529,7 @@
       </c>
       <c r="G2" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>143</v>
@@ -40587,15 +40587,15 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-2"</f>
-        <v>Z6CUS-PNATEST,20230605000000000000-2</v>
+        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z6BU-PNATEST,20230605000000000000-2</v>
+        <v>Z8BU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>147</v>
@@ -40605,7 +40605,7 @@
       </c>
       <c r="G3" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>143</v>
@@ -40663,15 +40663,15 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>43</v>
@@ -40681,7 +40681,7 @@
       </c>
       <c r="G4" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>149</v>
@@ -40739,15 +40739,15 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18001404835"</f>
-        <v>Z6pna-18001404835</v>
+        <v>Z8pna-18001404835</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C5</f>
-        <v>Z6pna18001404835</v>
+        <v>Z8pna18001404835</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>48</v>
@@ -40757,7 +40757,7 @@
       </c>
       <c r="G5" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>149</v>
@@ -40815,15 +40815,15 @@
       </c>
       <c r="B6" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18007703930"</f>
-        <v>Z6pna-18007703930</v>
+        <v>Z8pna-18007703930</v>
       </c>
       <c r="D6" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C6</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>52</v>
@@ -40833,7 +40833,7 @@
       </c>
       <c r="G6" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>149</v>
@@ -40891,15 +40891,15 @@
       </c>
       <c r="B7" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z6pna-45050040130</v>
+        <v>Z8pna-45050040130</v>
       </c>
       <c r="D7" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C7</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>56</v>
@@ -40909,7 +40909,7 @@
       </c>
       <c r="G7" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>149</v>
@@ -40967,15 +40967,15 @@
       </c>
       <c r="B8" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z6pna-NSL-2BLACK</v>
+        <v>Z8pna-NSL-2BLACK</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C8</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>60</v>
@@ -40985,7 +40985,7 @@
       </c>
       <c r="G8" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z6-026</v>
+        <v>PNABU-L3-Z8-019</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>149</v>
@@ -41085,7 +41085,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="105" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="106">
         <v>200</v>
@@ -41103,7 +41103,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="105" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="106">
         <v>200</v>
@@ -41121,7 +41121,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="106">
         <v>44000</v>
@@ -41139,7 +41139,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pna18007703930"</f>
-        <v>Z6pna18007703930</v>
+        <v>Z8pna18007703930</v>
       </c>
       <c r="B5" s="107">
         <v>1500</v>
@@ -41157,7 +41157,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pna45050040130"</f>
-        <v>Z6pna45050040130</v>
+        <v>Z8pna45050040130</v>
       </c>
       <c r="B6" s="106">
         <v>6000</v>
@@ -41175,7 +41175,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pnaNSL2BLACK"</f>
-        <v>Z6pnaNSL2BLACK</v>
+        <v>Z8pnaNSL2BLACK</v>
       </c>
       <c r="B7" s="106">
         <v>200</v>
@@ -41224,29 +41224,29 @@
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+1)), "dd MMM yyyy")</f>
-        <v>11 11月 2023</v>
+        <v>18 Nov 2023</v>
       </c>
       <c r="C2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>10 11月 2023</v>
+        <v>17 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+15), "dd MMM yyyy")</f>
-        <v>25 11月 2023</v>
+        <v>02 Dec 2023</v>
       </c>
       <c r="B3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+16), "dd MMM yyyy")</f>
-        <v>26 11月 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="C3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+31), "dd MMM yyyy")</f>
-        <v>11 12月 2023</v>
+        <v>18 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -41312,7 +41312,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -41321,7 +41321,7 @@
       </c>
       <c r="B3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
     </row>
   </sheetData>
@@ -41390,7 +41390,7 @@
       </c>
       <c r="C2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="D2" s="196" t="s">
         <v>15</v>
@@ -41412,7 +41412,7 @@
       </c>
       <c r="J2" s="207">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
@@ -41425,7 +41425,7 @@
       </c>
       <c r="C3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="D3" s="196" t="s">
         <v>15</v>
@@ -41447,7 +41447,7 @@
       </c>
       <c r="J3" s="207">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
   </sheetData>
@@ -41483,7 +41483,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="99" t="str">
         <f>'TC051'!$F2</f>
-        <v>Z6ATEST202306050000000000001</v>
+        <v>Z8ATEST202306050000000000001</v>
       </c>
       <c r="B2" s="167">
         <v>2.0019999999999998</v>
@@ -41495,7 +41495,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="99" t="str">
         <f>'TC051'!$F3</f>
-        <v>Z6ATEST202306050000000000002</v>
+        <v>Z8ATEST202306050000000000002</v>
       </c>
       <c r="B3" s="167">
         <v>2</v>
@@ -41507,7 +41507,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="99" t="str">
         <f>'TC051'!$F4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B4" s="167">
         <v>10.000999999999999</v>
@@ -41556,7 +41556,7 @@
       </c>
       <c r="B2" s="208" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="C2" t="s">
         <v>820</v>
@@ -41601,7 +41601,7 @@
       </c>
       <c r="B2" s="208" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z6s2-026</v>
+        <v>JPYAZ-Z8s2-019</v>
       </c>
       <c r="C2" t="s">
         <v>821</v>
@@ -41706,32 +41706,32 @@
       <c r="B2" s="161"/>
       <c r="C2" s="162" t="str">
         <f>'TC005-Req to Parts Master'!C4</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="D2" s="162" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z6s1-026</v>
+        <v>ELASUP-Z8s1-019</v>
       </c>
       <c r="E2" s="163" t="s">
         <v>145</v>
       </c>
       <c r="F2" s="162" t="str">
         <f>'TC005-Req to Parts Master'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="G2" s="162" t="str">
         <f>'TC005-Req to Parts Master'!B4</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="H2" s="164"/>
       <c r="I2" s="164"/>
       <c r="J2" s="165">
         <f ca="1">TODAY()</f>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="K2" s="165">
         <f ca="1">TODAY()+20</f>
-        <v>45260</v>
+        <v>45267</v>
       </c>
       <c r="L2" s="166">
         <v>22000</v>
@@ -41840,11 +41840,11 @@
     <row r="2" spans="1:17" ht="14.4">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z6pna1219AS1</v>
+        <v>Z8pna1219AS1</v>
       </c>
       <c r="B2" s="46" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z6pna-1219AS-1</v>
+        <v>Z8pna-1219AS-1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>145</v>

--- a/Excel Files/Scenario 10/S10_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 10/S10_TestCases_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3667685C-227B-4286-81D5-A99522B24E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33642FAB-6159-4575-A7B5-925283E38A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D91DBB81-1EAD-47E0-8243-635DFA859784}"/>
   </bookViews>
@@ -2993,7 +2993,7 @@
     <t>PNA2311004</t>
   </si>
   <si>
-    <t>Z8</t>
+    <t>ZS</t>
   </si>
 </sst>
 </file>
@@ -3001,30 +3001,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="24">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000_ "/>
-    <numFmt numFmtId="168" formatCode="0.00;\-0.00;0"/>
-    <numFmt numFmtId="169" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="171" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.00_ ;\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ ;\-0.0\ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="[$-14409]d/m/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.000000_);[Red]\(#,##0.000000\)"/>
-    <numFmt numFmtId="186" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000_ "/>
+    <numFmt numFmtId="167" formatCode="0.00;\-0.00;0"/>
+    <numFmt numFmtId="168" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="[$-14409]d/m/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="#,##0.000000_);[Red]\(#,##0.000000\)"/>
+    <numFmt numFmtId="185" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="186" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3555,13 +3555,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -3579,7 +3579,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3595,7 +3595,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3631,7 +3631,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3643,7 +3643,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3658,16 +3658,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3676,8 +3676,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3687,7 +3687,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3708,14 +3708,14 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3728,7 +3728,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3745,23 +3745,23 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="175" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3781,7 +3781,7 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3807,10 +3807,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3831,7 +3831,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3842,7 +3842,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3850,7 +3850,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3862,15 +3862,15 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3879,27 +3879,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3920,34 +3920,34 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="21" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="21" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3957,16 +3957,16 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3997,7 +3997,7 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="16" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4027,22 +4027,22 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="13" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4052,7 +4052,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4082,13 +4082,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="16" fillId="7" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4106,7 +4106,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="23" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4128,10 +4128,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4142,10 +4142,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4158,7 +4158,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4184,16 +4184,16 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="186" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4201,14 +4201,14 @@
     <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="184" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="24" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -4249,11 +4249,11 @@
     <cellStyle name="Normal 6 2 3 2" xfId="12" xr:uid="{481EFE48-D059-4DF9-A25E-2CDB6A1A1E60}"/>
     <cellStyle name="Normal 6 4" xfId="14" xr:uid="{489550A1-8ADB-4394-A26E-6135C4BDF319}"/>
     <cellStyle name="Normal 7" xfId="11" xr:uid="{052BBCBA-93FE-4F77-BA05-B494FC6B2AC8}"/>
+    <cellStyle name="標準 2 4 2" xfId="18" xr:uid="{26A18DD4-92BD-4D5A-86B4-8905952975B6}"/>
     <cellStyle name="常规 2" xfId="15" xr:uid="{B7C10058-E81B-4DF1-B96A-93C334938447}"/>
     <cellStyle name="常规 2 3" xfId="6" xr:uid="{8ADCC2CE-1AB3-4067-AA64-294D7FF8733D}"/>
     <cellStyle name="常规 2 6" xfId="16" xr:uid="{E03AA67E-C3DE-4B99-A85F-019A656C66AD}"/>
     <cellStyle name="常规 3" xfId="17" xr:uid="{AAABE09C-F2B9-4DEB-9BA2-C66271CFB601}"/>
-    <cellStyle name="標準 2 4 2" xfId="18" xr:uid="{26A18DD4-92BD-4D5A-86B4-8905952975B6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4568,7 +4568,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4592,22 +4592,22 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="96">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>876</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>B2&amp;"s1"</f>
-        <v>Z8s1</v>
+        <v>ZSs1</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>B2&amp;"s2"</f>
-        <v>Z8s2</v>
+        <v>ZSs2</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>A2&amp;"s2"</f>
-        <v>19s2</v>
+        <v>20s2</v>
       </c>
     </row>
   </sheetData>
@@ -4703,15 +4703,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>Z8-19</v>
+        <v>ZS-20</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-"&amp;F2</f>
-        <v>CD-Z8-19</v>
+        <v>CD-ZS-20</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC003'!C2&amp;"("&amp;'TC003'!D2&amp;")"</f>
-        <v>FN 60 DAYS-Z8(60 DAYS BY INV DATE)</v>
+        <v>FN 60 DAYS-ZS(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>144</v>
@@ -4724,22 +4724,22 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC004'!A2&amp;"("&amp;'TC004'!A2&amp;")"</f>
-        <v>PNDC-PNCUS-Z8(PNDC-PNCUS-Z8)</v>
+        <v>PNDC-PNCUS-ZS(PNDC-PNCUS-ZS)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-"&amp;F2</f>
-        <v>RD-Z8-19</v>
+        <v>RD-ZS-20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>148</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>"S1D-"&amp;F2</f>
-        <v>S1D-Z8-19</v>
+        <v>S1D-ZS-20</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>"S2D-"&amp;F2</f>
-        <v>S2D-Z8-19</v>
+        <v>S2D-ZS-20</v>
       </c>
       <c r="Q2" t="s">
         <v>801</v>
@@ -4960,11 +4960,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B2" s="46" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>145</v>
@@ -5039,7 +5039,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="str">
         <f>'TC081-BU Check PO'!A2</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B2" s="170">
         <v>44000</v>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B2" s="172" t="str">
         <f>'TC051'!F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="173">
         <v>140085460</v>
@@ -5125,7 +5125,7 @@
     <row r="3" spans="1:8">
       <c r="B3" s="172" t="str">
         <f>'TC051'!F3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="173">
         <v>140085460</v>
@@ -5141,7 +5141,7 @@
     <row r="4" spans="1:8">
       <c r="B4" s="172" t="str">
         <f>'TC051'!F4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="173">
         <v>88000</v>
@@ -5312,11 +5312,11 @@
     <row r="2" spans="1:17" ht="13.95" customHeight="1">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="E2" s="7"/>
@@ -5352,11 +5352,11 @@
     <row r="3" spans="1:17" ht="13.95" customHeight="1">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="E3" s="7"/>
@@ -5392,11 +5392,11 @@
     <row r="4" spans="1:17" ht="13.95" customHeight="1">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -5523,11 +5523,11 @@
     <row r="2" spans="1:22">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="s">
@@ -5573,11 +5573,11 @@
     <row r="3" spans="1:22" ht="27.6">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="s">
@@ -5623,11 +5623,11 @@
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="s">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>"PNABU-L3-"&amp;AutoIncrement!B2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
     </row>
   </sheetData>
@@ -5838,11 +5838,11 @@
     <row r="2" spans="1:17" s="46" customFormat="1">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -5878,11 +5878,11 @@
     <row r="3" spans="1:17" s="46" customFormat="1">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="7"/>
@@ -5918,11 +5918,11 @@
     <row r="4" spans="1:17" s="46" customFormat="1">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5993,7 +5993,7 @@
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+12), "dd MMM yyyy")</f>
-        <v>29 Dec 2023</v>
+        <v>29 12月 2023</v>
       </c>
       <c r="B2" t="str">
         <f>'TC050-Sup1 SO List'!A2</f>
@@ -6098,11 +6098,11 @@
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="s">
@@ -6148,11 +6148,11 @@
     <row r="3" spans="1:23" ht="27.6">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="s">
@@ -6198,11 +6198,11 @@
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="s">
@@ -6348,11 +6348,11 @@
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>145</v>
@@ -6412,11 +6412,11 @@
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>145</v>
@@ -6476,11 +6476,11 @@
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>145</v>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B2" s="172" t="str">
         <f>'TC051'!F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -6660,7 +6660,7 @@
     <row r="3" spans="1:14">
       <c r="B3" s="172" t="str">
         <f>'TC051'!F3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -6702,7 +6702,7 @@
     <row r="4" spans="1:14">
       <c r="B4" s="172" t="str">
         <f>'TC051'!F4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="170">
         <v>22000</v>
@@ -6771,7 +6771,7 @@
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="1" t="str">
         <f>'TC102-Supplier1 Outbound'!C2</f>
-        <v>o-MY-ELA-Z8-19-001</v>
+        <v>o-MY-ELA-ZS-20-001</v>
       </c>
       <c r="B2" t="s">
         <v>825</v>
@@ -6780,7 +6780,7 @@
     <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="1" t="str">
         <f>'TC102-Supplier1 Outbound'!C7</f>
-        <v>o-MY-ELA-Z8-19-002</v>
+        <v>o-MY-ELA-ZS-20-002</v>
       </c>
       <c r="B3" t="s">
         <v>826</v>
@@ -6789,7 +6789,7 @@
     <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="1" t="str">
         <f>'TC102-Supplier1 Outbound'!C9</f>
-        <v>o-MY-ELA-Z8-19-003</v>
+        <v>o-MY-ELA-ZS-20-003</v>
       </c>
       <c r="B4" t="s">
         <v>827</v>
@@ -6953,19 +6953,19 @@
       </c>
       <c r="C2" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z8-19-001</v>
+        <v>o-MY-ELA-ZS-20-001</v>
       </c>
       <c r="D2" s="113" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F2" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>114</v>
@@ -6987,11 +6987,11 @@
       </c>
       <c r="N2" s="117" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+9), "dd MMM yyyy")</f>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O2" s="117" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+13), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="AI2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="AJ2" s="116" t="s">
         <v>518</v>
@@ -7046,19 +7046,19 @@
       </c>
       <c r="C3" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z8-19-001</v>
+        <v>o-MY-ELA-ZS-20-001</v>
       </c>
       <c r="D3" s="113" t="str">
         <f t="shared" ref="D3:D11" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F3" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>114</v>
@@ -7080,11 +7080,11 @@
       </c>
       <c r="N3" s="117" t="str">
         <f t="shared" ref="N3:N6" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+9), "dd MMM yyyy")</f>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O3" s="117" t="str">
         <f t="shared" ref="O3:O6" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+13), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>519</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="AI3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="AJ3" s="116" t="s">
         <v>523</v>
@@ -7155,19 +7155,19 @@
       </c>
       <c r="C4" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z8-19-001</v>
+        <v>o-MY-ELA-ZS-20-001</v>
       </c>
       <c r="D4" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F4" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>20</v>
@@ -7189,11 +7189,11 @@
       </c>
       <c r="N4" s="117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O4" s="117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>519</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="AI4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="AJ4" s="116" t="s">
         <v>249</v>
@@ -7266,19 +7266,19 @@
       </c>
       <c r="C5" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z8-19-001</v>
+        <v>o-MY-ELA-ZS-20-001</v>
       </c>
       <c r="D5" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F5" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>20</v>
@@ -7300,11 +7300,11 @@
       </c>
       <c r="N5" s="117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O5" s="117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>526</v>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="AI5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="AJ5" s="116" t="s">
         <v>249</v>
@@ -7389,19 +7389,19 @@
       </c>
       <c r="C6" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-ELA-Z8-19-001</v>
+        <v>o-MY-ELA-ZS-20-001</v>
       </c>
       <c r="D6" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F6" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="G6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>114</v>
@@ -7423,11 +7423,11 @@
       </c>
       <c r="N6" s="117" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O6" s="117" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>526</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="AI6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="AJ6" s="116" t="s">
         <v>518</v>
@@ -7512,15 +7512,15 @@
       </c>
       <c r="C7" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-ELA-Z8-19-002</v>
+        <v>o-MY-ELA-ZS-20-002</v>
       </c>
       <c r="D7" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>114</v>
@@ -7544,7 +7544,7 @@
       <c r="O7" s="121"/>
       <c r="P7" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z8s1</v>
+        <v>NYKU8417026ZSs1</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="AI7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="AJ7" s="116" t="s">
         <v>518</v>
@@ -7614,15 +7614,15 @@
       </c>
       <c r="C8" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-ELA-Z8-19-002</v>
+        <v>o-MY-ELA-ZS-20-002</v>
       </c>
       <c r="D8" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>114</v>
@@ -7646,7 +7646,7 @@
       <c r="O8" s="121"/>
       <c r="P8" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z8s1</v>
+        <v>NYKU8417026ZSs1</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AI8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="AJ8" s="116" t="s">
         <v>523</v>
@@ -7716,19 +7716,19 @@
       </c>
       <c r="C9" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>o-MY-ELA-Z8-19-003</v>
+        <v>o-MY-ELA-ZS-20-003</v>
       </c>
       <c r="D9" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F9" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>20</v>
@@ -7750,11 +7750,11 @@
       </c>
       <c r="N9" s="117" t="str">
         <f t="shared" ref="N9:N11" ca="1" si="3">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+9), "dd MMM yyyy")</f>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O9" s="117" t="str">
         <f t="shared" ref="O9:O11" ca="1" si="4">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+13), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>529</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="AI9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="AJ9" s="116" t="s">
         <v>249</v>
@@ -7823,19 +7823,19 @@
       </c>
       <c r="C10" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>o-MY-ELA-Z8-19-003</v>
+        <v>o-MY-ELA-ZS-20-003</v>
       </c>
       <c r="D10" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F10" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -7857,11 +7857,11 @@
       </c>
       <c r="N10" s="117" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O10" s="117" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>532</v>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="AI10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="AJ10" s="116" t="s">
         <v>249</v>
@@ -7924,19 +7924,19 @@
       </c>
       <c r="C11" s="114" t="str">
         <f>"o-MY-ELA-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>o-MY-ELA-Z8-19-003</v>
+        <v>o-MY-ELA-ZS-20-003</v>
       </c>
       <c r="D11" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F11" s="113" t="str">
         <f>"Bs1-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>20</v>
@@ -7958,11 +7958,11 @@
       </c>
       <c r="N11" s="117" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>26 Nov 2023</v>
+        <v>26 11月 2023</v>
       </c>
       <c r="O11" s="117" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>30 Nov 2023</v>
+        <v>30 11月 2023</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>533</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="AI11" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="AJ11" s="116" t="s">
         <v>249</v>
@@ -8163,7 +8163,7 @@
     <row r="2" spans="1:20" s="179" customFormat="1">
       <c r="A2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>519</v>
@@ -8226,7 +8226,7 @@
     <row r="3" spans="1:20" s="179" customFormat="1">
       <c r="A3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="101" t="s">
@@ -8287,7 +8287,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>526</v>
@@ -8350,7 +8350,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="B5" t="s">
         <v>573</v>
@@ -8413,7 +8413,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="B6" t="s">
         <v>575</v>
@@ -8476,7 +8476,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="B7" t="s">
         <v>576</v>
@@ -8625,7 +8625,7 @@
     <row r="2" spans="1:22">
       <c r="A2" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="B2" t="s">
         <v>190</v>
@@ -8659,19 +8659,19 @@
       </c>
       <c r="L2" t="str">
         <f>'TC007-Received Req Info'!F2</f>
-        <v>Z8-19</v>
+        <v>ZS-20</v>
       </c>
       <c r="M2" t="str">
         <f>'TC007-Received Req Info'!G2</f>
-        <v>CD-Z8-19</v>
+        <v>CD-ZS-20</v>
       </c>
       <c r="N2" t="str">
         <f>'TC007-Received Req Info'!H2</f>
-        <v>FN 60 DAYS-Z8(60 DAYS BY INV DATE)</v>
+        <v>FN 60 DAYS-ZS(60 DAYS BY INV DATE)</v>
       </c>
       <c r="O2" t="str">
         <f>'TC003'!C2</f>
-        <v>FN 60 DAYS-Z8</v>
+        <v>FN 60 DAYS-ZS</v>
       </c>
       <c r="P2" t="s">
         <v>144</v>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="S2" t="str">
         <f>'TC004'!A2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="T2" t="s">
         <v>148</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>565</v>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C3" s="101"/>
       <c r="D3" s="101" t="s">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="B4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>526</v>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B5" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>526</v>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="C6" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z8s1</v>
+        <v>NYKU8417026ZSs1</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>566</v>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="B7" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="C7" t="s">
         <v>573</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B8" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>575</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B9" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="C9" t="s">
         <v>576</v>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>565</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="B3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C3" s="101"/>
       <c r="D3" s="101" t="s">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="B4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C4" t="s">
         <v>572</v>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="B5" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="C5" t="s">
         <v>572</v>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B6" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="C6" t="s">
         <v>573</v>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="C7" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z8s1</v>
+        <v>NYKU8417026ZSs1</v>
       </c>
       <c r="D7" s="101" t="s">
         <v>566</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="B8" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="C8" t="s">
         <v>575</v>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B9" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="C9" t="s">
         <v>576</v>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="C2" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>572</v>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="C3" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>565</v>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="C4" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs1-Z8-19-001</v>
+        <v>Bs1-ZS-20-001</v>
       </c>
       <c r="F4" t="s">
         <v>677</v>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="D5" s="101" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$C$2</f>
-        <v>NYKU8417026Z8s1</v>
+        <v>NYKU8417026ZSs1</v>
       </c>
       <c r="F5" t="s">
         <v>240</v>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C6" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>573</v>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="C7" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="D7" s="101" t="s">
         <v>576</v>
@@ -10238,7 +10238,7 @@
       </c>
       <c r="C8" s="222" t="str">
         <f>"Bs1-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>Bs1-Z8-19-003</v>
+        <v>Bs1-ZS-20-003</v>
       </c>
       <c r="D8" s="101" t="s">
         <v>575</v>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!$F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="187">
         <v>150</v>
@@ -10483,11 +10483,11 @@
     <row r="2" spans="1:26">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="s">
@@ -10538,11 +10538,11 @@
     <row r="3" spans="1:26" ht="26.4" customHeight="1">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="s">
@@ -10595,11 +10595,11 @@
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="s">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>145</v>
@@ -10823,11 +10823,11 @@
     <row r="3" spans="1:25">
       <c r="B3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>145</v>
@@ -10887,11 +10887,11 @@
     <row r="4" spans="1:25">
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>145</v>
@@ -11041,11 +11041,11 @@
     <row r="2" spans="1:20">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46" t="str">
@@ -11104,11 +11104,11 @@
     <row r="3" spans="1:20" ht="27.6">
       <c r="A3" s="40" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!B2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46" t="str">
@@ -11167,11 +11167,11 @@
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46" t="str">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11442,19 +11442,19 @@
       </c>
       <c r="C2" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z8-19-001</v>
+        <v>o-JP-YAZ-ZS-20-001</v>
       </c>
       <c r="D2" s="113" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>13</v>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="AI2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="AJ2" s="116" t="s">
         <v>259</v>
@@ -11551,19 +11551,19 @@
       </c>
       <c r="C3" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z8-19-001</v>
+        <v>o-JP-YAZ-ZS-20-001</v>
       </c>
       <c r="D3" s="113" t="str">
         <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F3" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>13</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="AI3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="AJ3" s="116" t="s">
         <v>261</v>
@@ -11660,19 +11660,19 @@
       </c>
       <c r="C4" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z8-19-001</v>
+        <v>o-JP-YAZ-ZS-20-001</v>
       </c>
       <c r="D4" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F4" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="AI4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="AJ4" s="116" t="s">
         <v>262</v>
@@ -11769,19 +11769,19 @@
       </c>
       <c r="C5" s="227" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>o-JP-YAZ-Z8-19-001</v>
+        <v>o-JP-YAZ-ZS-20-001</v>
       </c>
       <c r="D5" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="F5" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>6</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="AI5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="AJ5" s="116" t="s">
         <v>263</v>
@@ -11878,15 +11878,15 @@
       </c>
       <c r="C6" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-002"</f>
-        <v>o-JP-YAZ-Z8-19-002</v>
+        <v>o-JP-YAZ-ZS-20-002</v>
       </c>
       <c r="D6" s="113" t="str">
         <f t="shared" ref="D6:D10" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="G6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -11910,7 +11910,7 @@
       <c r="O6" s="117"/>
       <c r="P6" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="AI6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="AJ6" s="116" t="s">
         <v>259</v>
@@ -11970,15 +11970,15 @@
       </c>
       <c r="C7" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-002"</f>
-        <v>o-JP-YAZ-Z8-19-002</v>
+        <v>o-JP-YAZ-ZS-20-002</v>
       </c>
       <c r="D7" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>13</v>
@@ -12002,7 +12002,7 @@
       <c r="O7" s="121"/>
       <c r="P7" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="AI7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="AJ7" s="116" t="s">
         <v>262</v>
@@ -12062,15 +12062,15 @@
       </c>
       <c r="C8" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>o-JP-YAZ-Z8-19-003</v>
+        <v>o-JP-YAZ-ZS-20-003</v>
       </c>
       <c r="D8" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -12094,7 +12094,7 @@
       <c r="O8" s="121"/>
       <c r="P8" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="AI8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="AJ8" s="116" t="s">
         <v>261</v>
@@ -12154,15 +12154,15 @@
       </c>
       <c r="C9" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>o-JP-YAZ-Z8-19-003</v>
+        <v>o-JP-YAZ-ZS-20-003</v>
       </c>
       <c r="D9" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -12186,7 +12186,7 @@
       <c r="O9" s="117"/>
       <c r="P9" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -12223,7 +12223,7 @@
       </c>
       <c r="AI9" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="AJ9" s="116" t="s">
         <v>262</v>
@@ -12246,15 +12246,15 @@
       </c>
       <c r="C10" s="114" t="str">
         <f>"o-JP-YAZ-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-003"</f>
-        <v>o-JP-YAZ-Z8-19-003</v>
+        <v>o-JP-YAZ-ZS-20-003</v>
       </c>
       <c r="D10" s="113" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>6</v>
@@ -12278,7 +12278,7 @@
       <c r="O10" s="117"/>
       <c r="P10" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="AI10" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="AJ10" s="116" t="s">
         <v>263</v>
@@ -12460,19 +12460,19 @@
     <row r="2" spans="1:32">
       <c r="A2" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="B2" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC007-Contract Parts Info'!C2</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D2</f>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="M2" s="28" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="U2" s="16">
         <f>'TC007-Contract Parts Info'!O2</f>
@@ -12553,19 +12553,19 @@
     <row r="3" spans="1:32">
       <c r="A3" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="B3" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" t="str">
         <f>'TC007-Contract Parts Info'!C3</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D3</f>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="M3" s="28" t="str">
         <f t="shared" ref="M3:M8" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="U3" s="16">
         <f>'TC007-Contract Parts Info'!O3</f>
@@ -12646,19 +12646,19 @@
     <row r="4" spans="1:32">
       <c r="A4" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="B4" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" t="str">
         <f>'TC007-Contract Parts Info'!C4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="D4" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E4" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D4</f>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="M4" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="U4" s="16">
         <f>'TC007-Contract Parts Info'!O4</f>
@@ -12739,19 +12739,19 @@
     <row r="5" spans="1:32">
       <c r="A5" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="B5" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C5" t="str">
         <f>'TC007-Contract Parts Info'!C5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="D5" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="E5" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D5</f>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="M5" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="U5" s="16">
         <f>'TC007-Contract Parts Info'!O5</f>
@@ -12832,19 +12832,19 @@
     <row r="6" spans="1:32">
       <c r="A6" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="B6" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="C6" t="str">
         <f>'TC007-Contract Parts Info'!C6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="D6" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="E6" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D6</f>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="M6" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="U6" s="16">
         <f>'TC007-Contract Parts Info'!O6</f>
@@ -12925,19 +12925,19 @@
     <row r="7" spans="1:32">
       <c r="A7" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="B7" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="C7" t="str">
         <f>'TC007-Contract Parts Info'!C7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="D7" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="E7" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D7</f>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="M7" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="U7" s="16">
         <f>'TC007-Contract Parts Info'!O7</f>
@@ -13018,19 +13018,19 @@
     <row r="8" spans="1:32">
       <c r="A8" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="B8" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="C8" t="str">
         <f>'TC007-Contract Parts Info'!C8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="D8" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="E8" s="27" t="str">
         <f>'TC005-Req to Parts Master'!D8</f>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="M8" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="U8" s="16">
         <f>'TC007-Contract Parts Info'!O8</f>
@@ -13144,7 +13144,7 @@
     <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="1" t="str">
         <f>'TC115-Supplier2 Outbound'!C5</f>
-        <v>o-JP-YAZ-Z8-19-001</v>
+        <v>o-JP-YAZ-ZS-20-001</v>
       </c>
       <c r="B2" t="s">
         <v>841</v>
@@ -13153,7 +13153,7 @@
     <row r="3" spans="1:2" ht="14.4">
       <c r="A3" s="1" t="str">
         <f>'TC115-Supplier2 Outbound'!C6</f>
-        <v>o-JP-YAZ-Z8-19-002</v>
+        <v>o-JP-YAZ-ZS-20-002</v>
       </c>
       <c r="B3" t="s">
         <v>842</v>
@@ -13162,7 +13162,7 @@
     <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="1" t="str">
         <f>'TC115-Supplier2 Outbound'!C8</f>
-        <v>o-JP-YAZ-Z8-19-003</v>
+        <v>o-JP-YAZ-ZS-20-003</v>
       </c>
       <c r="B4" t="s">
         <v>843</v>
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -13452,7 +13452,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -13535,7 +13535,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>565</v>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>566</v>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="C4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D4" s="127" t="s">
         <v>566</v>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="C5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D5" s="127" t="s">
         <v>566</v>
@@ -14150,7 +14150,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>565</v>
@@ -14231,7 +14231,7 @@
     <row r="3" spans="1:26">
       <c r="B3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>566</v>
@@ -14309,7 +14309,7 @@
     <row r="4" spans="1:26" s="125" customFormat="1">
       <c r="B4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="C4" s="127" t="s">
         <v>566</v>
@@ -14387,7 +14387,7 @@
     <row r="5" spans="1:26" s="125" customFormat="1">
       <c r="B5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>566</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -14690,7 +14690,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -14755,7 +14755,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="C2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>565</v>
@@ -14925,7 +14925,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="F3" t="s">
         <v>677</v>
@@ -14962,7 +14962,7 @@
       <c r="C4" s="125"/>
       <c r="D4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="F4" t="s">
         <v>677</v>
@@ -14999,7 +14999,7 @@
       <c r="C5" s="125"/>
       <c r="D5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="F5" t="s">
         <v>677</v>
@@ -15211,7 +15211,7 @@
       </c>
       <c r="C2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>565</v>
@@ -15254,7 +15254,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="E3" t="s">
         <v>548</v>
@@ -15294,7 +15294,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="E4" t="s">
         <v>548</v>
@@ -15334,7 +15334,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>548</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC007-Received Req Info'!O2</f>
-        <v>S1D-Z8-19</v>
+        <v>S1D-ZS-20</v>
       </c>
     </row>
   </sheetData>
@@ -15601,7 +15601,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="113" t="str">
         <f>'TC115-Supplier2 Outbound'!$F$2</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>565</v>
@@ -15682,7 +15682,7 @@
     <row r="3" spans="1:26">
       <c r="B3" s="8" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>566</v>
@@ -15760,7 +15760,7 @@
     <row r="4" spans="1:26" s="125" customFormat="1">
       <c r="B4" s="126" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="C4" s="127" t="s">
         <v>566</v>
@@ -15838,7 +15838,7 @@
     <row r="5" spans="1:26" s="125" customFormat="1">
       <c r="B5" s="126" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>566</v>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -16197,7 +16197,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -16280,7 +16280,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -16452,7 +16452,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -16584,7 +16584,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -16649,7 +16649,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -16806,7 +16806,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -16833,7 +16833,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -16860,7 +16860,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -16887,7 +16887,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -16914,7 +16914,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -16941,7 +16941,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -16968,7 +16968,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -17046,7 +17046,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -17070,7 +17070,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -17094,7 +17094,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -17400,7 +17400,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -17483,7 +17483,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -17853,7 +17853,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -17939,7 +17939,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC007-Received Req Info'!P2</f>
-        <v>S2D-Z8-19</v>
+        <v>S2D-ZS-20</v>
       </c>
     </row>
   </sheetData>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -18666,7 +18666,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -18749,7 +18749,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -18832,7 +18832,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -19589,7 +19589,7 @@
       </c>
       <c r="B2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>519</v>
@@ -19677,7 +19677,7 @@
       </c>
       <c r="C3" s="223" t="str">
         <f>"NYKU8417026"&amp;AutoIncrement!$D$2</f>
-        <v>NYKU8417026Z8s2</v>
+        <v>NYKU8417026ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -19763,7 +19763,7 @@
       <c r="B4" s="222"/>
       <c r="C4" s="223" t="str">
         <f>"JP-YAZ-C-230608001-"&amp;AutoIncrement!$D$2</f>
-        <v>JP-YAZ-C-230608001-Z8s2</v>
+        <v>JP-YAZ-C-230608001-ZSs2</v>
       </c>
       <c r="D4" s="101" t="s">
         <v>566</v>
@@ -19849,7 +19849,7 @@
       <c r="B5" s="222"/>
       <c r="C5" s="223" t="str">
         <f>"EGSU9073529"&amp;AutoIncrement!$D$2</f>
-        <v>EGSU9073529Z8s2</v>
+        <v>EGSU9073529ZSs2</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>566</v>
@@ -20378,101 +20378,101 @@
     <row r="2" spans="1:5">
       <c r="A2" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B20" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-DC-Z8-01-003</v>
+        <v>i-MY-PNA-DC-ZS-01-003</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="C11" s="130">
         <v>100.001</v>
@@ -20487,91 +20487,91 @@
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-DC-Z8-01-001</v>
+        <v>i-MY-PNA-DC-ZS-01-001</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-002"</f>
-        <v>i-MY-PNA-DC-Z8-01-002</v>
+        <v>i-MY-PNA-DC-ZS-01-002</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="129" t="str">
         <f>"i-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-01-002"</f>
-        <v>i-MY-PNA-DC-Z8-01-002</v>
+        <v>i-MY-PNA-DC-ZS-01-002</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
   </sheetData>
@@ -20605,7 +20605,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="132">
         <v>250</v>
@@ -20614,7 +20614,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="132">
         <v>250</v>
@@ -20623,7 +20623,7 @@
     <row r="4" spans="1:2">
       <c r="A4" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="132">
         <v>250</v>
@@ -20632,7 +20632,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="132">
         <v>250</v>
@@ -20641,7 +20641,7 @@
     <row r="6" spans="1:2">
       <c r="A6" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B6" s="132">
         <v>250</v>
@@ -20650,7 +20650,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B7" s="132">
         <v>250</v>
@@ -20659,7 +20659,7 @@
     <row r="8" spans="1:2">
       <c r="A8" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B8" s="132">
         <v>250</v>
@@ -20695,7 +20695,7 @@
     <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -20738,7 +20738,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZD90"</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B2" s="134">
         <v>50</v>
@@ -20750,7 +20750,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZE00"</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="134">
         <v>50</v>
@@ -20762,7 +20762,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZK50"</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B4" s="134">
         <v>50</v>
@@ -20774,7 +20774,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B5" s="134">
         <v>50</v>
@@ -20786,7 +20786,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B6" s="134">
         <v>50</v>
@@ -20798,7 +20798,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B7" s="134">
         <v>50</v>
@@ -20810,7 +20810,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B8" s="134">
         <v>50</v>
@@ -20822,7 +20822,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B9" s="134">
         <v>50</v>
@@ -20834,7 +20834,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B10" s="134">
         <v>50</v>
@@ -20846,7 +20846,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="131" t="str">
         <f>'TC007-Contract Parts Info'!$D$8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B11" s="134">
         <v>50</v>
@@ -20881,7 +20881,7 @@
     <row r="2" spans="1:1">
       <c r="A2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
   </sheetData>
@@ -20984,7 +20984,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -21011,7 +21011,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -21038,7 +21038,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -21065,7 +21065,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -21092,7 +21092,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -21119,7 +21119,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -21146,7 +21146,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -21267,11 +21267,11 @@
     <row r="2" spans="1:24">
       <c r="A2" s="30" t="str">
         <f>"ELASUP-PNDC-"&amp;AutoIncrement!A2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
       <c r="B2" s="30" t="str">
         <f>A2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>4</v>
@@ -21392,7 +21392,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -21416,7 +21416,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -21440,7 +21440,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -21512,18 +21512,18 @@
     <row r="2" spans="1:9">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="C2" s="137" t="s">
         <v>190</v>
       </c>
       <c r="D2" s="137" t="str">
         <f>'TC021-Setup Data'!$A$2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="E2" s="137" t="s">
         <v>301</v>
@@ -21542,18 +21542,18 @@
     <row r="3" spans="1:9">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="C3" s="137" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="137" t="str">
         <f>'TC021-Setup Data'!$A$2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="E3" s="137" t="s">
         <v>301</v>
@@ -21572,18 +21572,18 @@
     <row r="4" spans="1:9">
       <c r="A4" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B4" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C4" s="137" t="s">
         <v>190</v>
       </c>
       <c r="D4" s="137" t="str">
         <f>'TC021-Setup Data'!$A$2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="E4" s="137" t="s">
         <v>302</v>
@@ -21630,7 +21630,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="136" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>18 11月 2023</v>
       </c>
       <c r="B2" s="136">
         <f ca="1">EOMONTH(TODAY(),0)</f>
@@ -21674,7 +21674,7 @@
       </c>
       <c r="C2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="C3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
     </row>
   </sheetData>
@@ -21729,7 +21729,7 @@
       </c>
       <c r="C2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -21741,7 +21741,7 @@
       </c>
       <c r="C3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
     </row>
   </sheetData>
@@ -21784,7 +21784,7 @@
       </c>
       <c r="C2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="C3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
     </row>
   </sheetData>
@@ -21844,7 +21844,7 @@
       </c>
       <c r="D2" s="136" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>18 11月 2023</v>
       </c>
     </row>
   </sheetData>
@@ -21950,11 +21950,11 @@
     <row r="2" spans="1:23">
       <c r="A2" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-PNA-DC-Z8-19-001</v>
+        <v>o-MY-PNA-DC-ZS-20-001</v>
       </c>
       <c r="B2" s="113" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="D2" s="115">
         <v>100</v>
@@ -21963,7 +21963,7 @@
       <c r="F2" s="231"/>
       <c r="G2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -21989,11 +21989,11 @@
     <row r="3" spans="1:23">
       <c r="A3" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-PNA-DC-Z8-19-001</v>
+        <v>o-MY-PNA-DC-ZS-20-001</v>
       </c>
       <c r="B3" s="113" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="D3" s="246">
         <v>40</v>
@@ -22002,7 +22002,7 @@
       <c r="F3" s="231"/>
       <c r="G3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>772</v>
@@ -22048,15 +22048,15 @@
     <row r="4" spans="1:23">
       <c r="A4" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-PNA-DC-Z8-19-002</v>
+        <v>o-MY-PNA-DC-ZS-20-002</v>
       </c>
       <c r="B4" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="C4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="D4" s="115">
         <v>100</v>
@@ -22118,15 +22118,15 @@
     <row r="5" spans="1:23">
       <c r="A5" s="114" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-002"</f>
-        <v>o-MY-PNA-DC-Z8-19-002</v>
+        <v>o-MY-PNA-DC-ZS-20-002</v>
       </c>
       <c r="B5" s="113" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="C5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="D5" s="115">
         <v>60</v>
@@ -22201,7 +22201,7 @@
     <row r="2" spans="1:2">
       <c r="A2" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!A2&amp;"-001"</f>
-        <v>o-MY-PNA-DC-Z8-19-001</v>
+        <v>o-MY-PNA-DC-ZS-20-001</v>
       </c>
       <c r="B2" t="s">
         <v>870</v>
@@ -22210,7 +22210,7 @@
     <row r="3" spans="1:2">
       <c r="A3" t="str">
         <f>"o-MY-PNA-DC-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-002"</f>
-        <v>o-MY-PNA-DC-Z8-19-002</v>
+        <v>o-MY-PNA-DC-ZS-20-002</v>
       </c>
       <c r="B3" t="s">
         <v>871</v>
@@ -22291,11 +22291,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -22341,11 +22341,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -22575,11 +22575,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -22625,11 +22625,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -22746,11 +22746,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!$B$2</f>
@@ -22796,11 +22796,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!$B$2</f>
@@ -22914,11 +22914,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!B3</f>
@@ -22964,11 +22964,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!B3</f>
@@ -23133,7 +23133,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -23218,7 +23218,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -23391,7 +23391,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -23592,7 +23592,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -23677,7 +23677,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -23850,7 +23850,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -24005,7 +24005,7 @@
       <c r="C2" s="113"/>
       <c r="D2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
       <c r="F2" s="184" t="s">
         <v>677</v>
@@ -24042,7 +24042,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
       <c r="F3" t="s">
         <v>677</v>
@@ -24078,7 +24078,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>776</v>
@@ -24117,7 +24117,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5"/>
@@ -24229,21 +24229,21 @@
     <row r="2" spans="1:8">
       <c r="A2" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-001"</f>
-        <v>i-MY-PNA-CUS-Z8-01-001</v>
+        <v>i-MY-PNA-CUS-ZS-01-001</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-002"</f>
-        <v>i-MY-PNA-CUS-Z8-01-002</v>
+        <v>i-MY-PNA-CUS-ZS-01-002</v>
       </c>
       <c r="B3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -24267,21 +24267,21 @@
     <row r="4" spans="1:8">
       <c r="A4" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-003"</f>
-        <v>i-MY-PNA-CUS-Z8-01-003</v>
+        <v>i-MY-PNA-CUS-ZS-01-003</v>
       </c>
       <c r="B4" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="239" t="str">
         <f>"i-MY-PNA-CUS-"&amp;AutoIncrement!$B$2&amp;"-01-004"</f>
-        <v>i-MY-PNA-CUS-Z8-01-004</v>
+        <v>i-MY-PNA-CUS-ZS-01-004</v>
       </c>
       <c r="B5" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
   </sheetData>
@@ -24370,11 +24370,11 @@
     <row r="2" spans="1:15">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -24417,11 +24417,11 @@
     <row r="3" spans="1:15">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -24516,7 +24516,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>"ELA 60 DAYS "&amp;AutoIncrement!A2</f>
-        <v>ELA 60 DAYS 19</v>
+        <v>ELA 60 DAYS 20</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -24603,11 +24603,11 @@
     <row r="2" spans="1:15">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="C2" t="s">
         <v>299</v>
@@ -24650,11 +24650,11 @@
     <row r="3" spans="1:15">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C3" t="s">
         <v>304</v>
@@ -24765,11 +24765,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!$B$2</f>
@@ -24815,11 +24815,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!$B$2</f>
@@ -24933,11 +24933,11 @@
     <row r="2" spans="1:16">
       <c r="A2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B2" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="D2" t="str">
         <f>'TC160'!$B$3</f>
@@ -24983,11 +24983,11 @@
     <row r="3" spans="1:16">
       <c r="A3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$C$4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B3" s="137" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!$B$4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="D3" t="str">
         <f>'TC160'!$B$3</f>
@@ -25060,20 +25060,20 @@
       <c r="A2" s="113"/>
       <c r="B2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>776</v>
@@ -25082,7 +25082,7 @@
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="B5" s="8"/>
     </row>
@@ -25139,7 +25139,7 @@
       <c r="C2" s="113"/>
       <c r="D2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
       <c r="E2" t="s">
         <v>563</v>
@@ -25159,7 +25159,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
       <c r="E3" t="s">
         <v>563</v>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>776</v>
@@ -25200,7 +25200,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" t="s">
@@ -25746,7 +25746,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -26004,7 +26004,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -26205,7 +26205,7 @@
       <c r="B2" s="113"/>
       <c r="C2" s="8" t="str">
         <f>"TLLU6124978"&amp;AutoIncrement!$D$2</f>
-        <v>TLLU6124978Z8s2</v>
+        <v>TLLU6124978ZSs2</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>566</v>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="C3" s="8" t="str">
         <f>"C-20130614001"&amp;AutoIncrement!$D$2</f>
-        <v>C-20130614001Z8s2</v>
+        <v>C-20130614001ZSs2</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>566</v>
@@ -26375,7 +26375,7 @@
       </c>
       <c r="B4" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C4" s="248" t="s">
         <v>609</v>
@@ -26463,7 +26463,7 @@
       </c>
       <c r="B5" s="113" t="str">
         <f>"B-NT-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>B-NT-Z8-19-001</v>
+        <v>B-NT-ZS-20-001</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="101" t="s">
@@ -26776,15 +26776,15 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-1"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>518</v>
@@ -26794,7 +26794,7 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>114</v>
@@ -26837,15 +26837,15 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"SUP-PNATEST,20230605000000000000-2"</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>248</v>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="G3" s="1" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>114</v>
@@ -26898,15 +26898,15 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>249</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="G4" s="1" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>20</v>
@@ -27076,7 +27076,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="B3" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -27094,7 +27094,7 @@
       </c>
       <c r="B4" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="B5" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
     </row>
   </sheetData>
@@ -27328,7 +27328,7 @@
       </c>
       <c r="C2" s="113" t="str">
         <f>"Bs2-"&amp;AutoIncrement!$B$2&amp;"-"&amp;AutoIncrement!$A$2&amp;"-001"</f>
-        <v>Bs2-Z8-19-001</v>
+        <v>Bs2-ZS-20-001</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>565</v>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
@@ -27579,7 +27579,7 @@
       </c>
       <c r="C3" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6">
@@ -27614,7 +27614,7 @@
       </c>
       <c r="C4" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna18007703930"</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6">
@@ -27649,7 +27649,7 @@
       </c>
       <c r="C5" s="11" t="str">
         <f>AutoIncrement!B2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="D5" s="3">
         <v>45051040130</v>
@@ -27686,7 +27686,7 @@
       </c>
       <c r="C6" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pnaNSL2BLACK"</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
@@ -27758,7 +27758,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="str">
         <f>"ELASUP-"&amp;AutoIncrement!C2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
     </row>
   </sheetData>
@@ -27846,15 +27846,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>AutoIncrement!C2&amp;AutoIncrement!A2</f>
-        <v>Z8s119</v>
+        <v>ZSs120</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CD-Z8s119-19</v>
+        <v>CD-ZSs120-20</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC10.2'!C2&amp;"("&amp;'TC10.2'!D2&amp;")"</f>
-        <v>ELA 60 DAYS 19(60 DAYS BY INV DATE)</v>
+        <v>ELA 60 DAYS 20(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>144</v>
@@ -27867,11 +27867,11 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC010.1'!A2&amp;"("&amp;'TC010.1'!B2&amp;")"</f>
-        <v>ELASUP-PNDC-19(ELASUP-PNDC-19)</v>
+        <v>ELASUP-PNDC-20(ELASUP-PNDC-20)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>RD-Z8s119-19</v>
+        <v>RD-ZSs120-20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>148</v>
@@ -27978,11 +27978,11 @@
     <row r="2" spans="1:24">
       <c r="A2" s="32" t="str">
         <f>"YAZSUP-PNDC-"&amp;AutoIncrement!B2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
       <c r="B2" s="32" t="str">
         <f>A2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>4</v>
@@ -28222,7 +28222,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>"YAZ 60 DAYS "&amp;AutoIncrement!B2</f>
-        <v>YAZ 60 DAYS Z8</v>
+        <v>YAZ 60 DAYS ZS</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -28341,15 +28341,15 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>259</v>
@@ -28359,7 +28359,7 @@
       </c>
       <c r="G2" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>13</v>
@@ -28402,15 +28402,15 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>261</v>
@@ -28420,7 +28420,7 @@
       </c>
       <c r="G3" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>13</v>
@@ -28463,15 +28463,15 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>262</v>
@@ -28481,7 +28481,7 @@
       </c>
       <c r="G4" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -28524,15 +28524,15 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>263</v>
@@ -28542,7 +28542,7 @@
       </c>
       <c r="G5" s="1" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>6</v>
@@ -28686,15 +28686,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>AutoIncrement!E2&amp;AutoIncrement!A2</f>
-        <v>19s219</v>
+        <v>20s220</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CD-19s219-19</v>
+        <v>CD-20s220-20</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC11.2'!C2&amp;"("&amp;'TC11.2'!D2&amp;")"</f>
-        <v>YAZ 60 DAYS Z8(60 DAYS BY INV DATE)</v>
+        <v>YAZ 60 DAYS ZS(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>260</v>
@@ -28707,11 +28707,11 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC011.1'!A2&amp;"("&amp;'TC011.1'!A2&amp;")"</f>
-        <v>YAZSUP-PNDC-Z8(YAZSUP-PNDC-Z8)</v>
+        <v>YAZSUP-PNDC-ZS(YAZSUP-PNDC-ZS)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-"&amp;AutoIncrement!D2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>RD-Z8s2-19</v>
+        <v>RD-ZSs2-20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>146</v>
@@ -28760,7 +28760,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="str">
         <f>"JPYAZ-"&amp;AutoIncrement!D2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
     </row>
   </sheetData>
@@ -28857,19 +28857,19 @@
     <row r="2" spans="1:22" ht="27.6">
       <c r="A2" s="8" t="str">
         <f>'TC011'!B2</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC011'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC011'!C2</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC011'!B2</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>715</v>
@@ -28882,7 +28882,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>20</v>
@@ -28924,19 +28924,19 @@
     <row r="3" spans="1:22" ht="27.6">
       <c r="A3" s="8" t="str">
         <f>'TC011'!B3</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC011'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC011'!C3</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC011'!B3</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>716</v>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>20</v>
@@ -28991,19 +28991,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC011'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC011'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC011'!C4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC011'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>43</v>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>22000</v>
@@ -29146,19 +29146,19 @@
     <row r="2" spans="1:22">
       <c r="A2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC012'!D2</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC012'!C2</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D5</f>
@@ -29172,7 +29172,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>100</v>
@@ -29214,19 +29214,19 @@
     <row r="3" spans="1:22">
       <c r="A3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC012'!D3</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC012'!C3</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D6</f>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>1500</v>
@@ -29282,19 +29282,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC012'!D4</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC012'!C4</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D7</f>
@@ -29308,7 +29308,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>6000</v>
@@ -29350,19 +29350,19 @@
     <row r="5" spans="1:22">
       <c r="A5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>'TC012'!D5</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>'TC012'!C5</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>'TC005-Req to Parts Master'!D8</f>
@@ -29376,7 +29376,7 @@
       </c>
       <c r="H5" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K5" s="37">
         <v>20</v>
@@ -29481,11 +29481,11 @@
       </c>
       <c r="C2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="D2" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>43</v>
@@ -29518,11 +29518,11 @@
       </c>
       <c r="C3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18001404835"</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>48</v>
@@ -29555,11 +29555,11 @@
       </c>
       <c r="C4" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna18007703930"</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>52</v>
@@ -29592,11 +29592,11 @@
       </c>
       <c r="C5" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="D5" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>56</v>
@@ -29629,11 +29629,11 @@
       </c>
       <c r="C6" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="D6" s="10" t="str">
         <f>AutoIncrement!$B$2&amp;"pnaNSL2BLACK"</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>60</v>
@@ -29769,7 +29769,7 @@
     <row r="2" spans="1:25">
       <c r="A2" s="24" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
@@ -29800,15 +29800,15 @@
       </c>
       <c r="N2" t="str">
         <f>'TC011-Received Req Info (SUP1)'!F2</f>
-        <v>Z8s119</v>
+        <v>ZSs120</v>
       </c>
       <c r="O2" t="str">
         <f>'TC011-Received Req Info (SUP1)'!G2</f>
-        <v>CD-Z8s119-19</v>
+        <v>CD-ZSs120-20</v>
       </c>
       <c r="P2" t="str">
         <f>'TC10.2'!C2&amp;"("&amp;'TC10.2'!D2&amp;")"</f>
-        <v>ELA 60 DAYS 19(60 DAYS BY INV DATE)</v>
+        <v>ELA 60 DAYS 20(60 DAYS BY INV DATE)</v>
       </c>
       <c r="R2" t="s">
         <v>144</v>
@@ -29821,7 +29821,7 @@
       </c>
       <c r="V2" s="39" t="str">
         <f>'TC010.1'!A2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
       <c r="W2" t="s">
         <v>148</v>
@@ -29921,19 +29921,19 @@
     <row r="2" spans="1:22" ht="27.6">
       <c r="A2" s="8" t="str">
         <f>'TC011'!$C2</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC011'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC011'!C2</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC011'!B2</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E2" s="40" t="str">
         <f>'TC011'!E2</f>
@@ -29947,7 +29947,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>20</v>
@@ -29989,19 +29989,19 @@
     <row r="3" spans="1:22" ht="27.6">
       <c r="A3" s="8" t="str">
         <f>'TC011'!$C3</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC011'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC011'!C3</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC011'!B3</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="E3" s="40" t="str">
         <f>'TC011'!E3</f>
@@ -30015,7 +30015,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>20</v>
@@ -30057,19 +30057,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC011'!$C4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC011'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC011'!C4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC011'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E4" s="40" t="str">
         <f>'TC011'!E4</f>
@@ -30083,7 +30083,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>22000</v>
@@ -30238,7 +30238,7 @@
     <row r="2" spans="1:30">
       <c r="A2" s="24" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="B2" t="s">
         <v>150</v>
@@ -30269,19 +30269,19 @@
       </c>
       <c r="N2" t="str">
         <f>'TC012-Received Req Info (SUP2)'!F2</f>
-        <v>19s219</v>
+        <v>20s220</v>
       </c>
       <c r="O2" t="str">
         <f>'TC012-Received Req Info (SUP2)'!G2</f>
-        <v>CD-19s219-19</v>
+        <v>CD-20s220-20</v>
       </c>
       <c r="P2" t="str">
         <f>'TC11.2'!C2&amp;"("&amp;'TC11.2'!D2&amp;")"</f>
-        <v>YAZ 60 DAYS Z8(60 DAYS BY INV DATE)</v>
+        <v>YAZ 60 DAYS ZS(60 DAYS BY INV DATE)</v>
       </c>
       <c r="Q2" t="str">
         <f>'TC11.2'!C2&amp;"("&amp;'TC11.2'!D2&amp;")"</f>
-        <v>YAZ 60 DAYS Z8(60 DAYS BY INV DATE)</v>
+        <v>YAZ 60 DAYS ZS(60 DAYS BY INV DATE)</v>
       </c>
       <c r="R2" t="s">
         <v>260</v>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="V2" s="39" t="str">
         <f>'TC011.1'!A2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
       <c r="W2" t="s">
         <v>146</v>
@@ -30406,19 +30406,19 @@
     <row r="2" spans="1:22">
       <c r="A2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC012'!D2</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>'TC012'!C2</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC012'!B2</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>'TC012'!E2</f>
@@ -30432,7 +30432,7 @@
       </c>
       <c r="H2" s="36" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K2" s="37">
         <v>100</v>
@@ -30474,19 +30474,19 @@
     <row r="3" spans="1:22">
       <c r="A3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC012'!D3</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>'TC012'!C3</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>'TC012'!B3</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>'TC012'!E3</f>
@@ -30500,7 +30500,7 @@
       </c>
       <c r="H3" s="36" t="str">
         <f t="shared" ref="H3:H5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "mmm d, yyyy")</f>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K3" s="37">
         <v>1500</v>
@@ -30542,19 +30542,19 @@
     <row r="4" spans="1:22">
       <c r="A4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC012'!D4</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>'TC012'!C4</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC012'!B4</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>'TC012'!E4</f>
@@ -30568,7 +30568,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K4" s="37">
         <v>6000</v>
@@ -30610,19 +30610,19 @@
     <row r="5" spans="1:22">
       <c r="A5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>'TC012'!D5</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>'TC012'!C5</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>'TC012'!B5</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>'TC012'!E5</f>
@@ -30636,7 +30636,7 @@
       </c>
       <c r="H5" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Nov 17, 2023</v>
+        <v>11月 17, 2023</v>
       </c>
       <c r="K5" s="37">
         <v>20</v>
@@ -30739,18 +30739,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -30760,7 +30760,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -30769,18 +30769,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -30790,7 +30790,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -30799,18 +30799,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -30820,24 +30820,24 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>167</v>
@@ -30847,24 +30847,24 @@
       </c>
       <c r="J5" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="D6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G6" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>167</v>
@@ -30874,24 +30874,24 @@
       </c>
       <c r="J6" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G7" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>167</v>
@@ -30901,24 +30901,24 @@
       </c>
       <c r="J7" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="D8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G8" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>167</v>
@@ -30928,7 +30928,7 @@
       </c>
       <c r="J8" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
     </row>
   </sheetData>
@@ -31011,18 +31011,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E2" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C2</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -31032,14 +31032,14 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K2" s="43" t="s">
         <v>145</v>
       </c>
       <c r="L2" s="44" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>167</v>
@@ -31049,7 +31049,7 @@
       </c>
       <c r="O2" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -31058,18 +31058,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E3" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C3</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -31079,14 +31079,14 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K3" s="43" t="s">
         <v>145</v>
       </c>
       <c r="L3" s="44" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>167</v>
@@ -31096,7 +31096,7 @@
       </c>
       <c r="O3" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -31105,18 +31105,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E4" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -31126,14 +31126,14 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K4" s="43" t="s">
         <v>145</v>
       </c>
       <c r="L4" s="44" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="M4" s="30" t="s">
         <v>167</v>
@@ -31143,24 +31143,24 @@
       </c>
       <c r="O4" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="D5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E5" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>167</v>
@@ -31170,14 +31170,14 @@
       </c>
       <c r="J5" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K5" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L5" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>167</v>
@@ -31187,24 +31187,24 @@
       </c>
       <c r="O5" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="D6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E6" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>167</v>
@@ -31214,14 +31214,14 @@
       </c>
       <c r="J6" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L6" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>167</v>
@@ -31231,24 +31231,24 @@
       </c>
       <c r="O6" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="D7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E7" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>167</v>
@@ -31258,14 +31258,14 @@
       </c>
       <c r="J7" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K7" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L7" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>167</v>
@@ -31275,24 +31275,24 @@
       </c>
       <c r="O7" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="D8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E8" s="42" t="str">
         <f>'TC007-Contract Parts Info'!C8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="10" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>167</v>
@@ -31302,14 +31302,14 @@
       </c>
       <c r="J8" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K8" s="43" t="s">
         <v>150</v>
       </c>
       <c r="L8" s="44" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>167</v>
@@ -31319,7 +31319,7 @@
       </c>
       <c r="O8" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
   </sheetData>
@@ -31387,18 +31387,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC011'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E2" s="45" t="str">
         <f>'TC011'!C2</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -31408,7 +31408,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -31417,18 +31417,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="10" t="str">
         <f>'TC011'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E3" s="45" t="str">
         <f>'TC011'!C3</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -31438,7 +31438,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -31447,18 +31447,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="10" t="str">
         <f>'TC011'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E4" s="45" t="str">
         <f>'TC011'!C4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -31468,7 +31468,7 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC010.1'!$A$2</f>
-        <v>ELASUP-PNDC-19</v>
+        <v>ELASUP-PNDC-20</v>
       </c>
     </row>
   </sheetData>
@@ -31536,18 +31536,18 @@
       </c>
       <c r="D2" s="10" t="str">
         <f>'TC012'!D2</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>'TC012'!C2</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -31557,24 +31557,24 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3" s="10" t="str">
         <f>'TC012'!D3</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>'TC012'!C3</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -31584,24 +31584,24 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="D4" s="10" t="str">
         <f>'TC012'!D4</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>'TC012'!C4</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -31611,24 +31611,24 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5" s="10" t="str">
         <f>'TC012'!D5</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>'TC012'!C5</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>167</v>
@@ -31638,7 +31638,7 @@
       </c>
       <c r="J5" s="10" t="str">
         <f>'TC011.1'!$A$2</f>
-        <v>YAZSUP-PNDC-Z8</v>
+        <v>YAZSUP-PNDC-ZS</v>
       </c>
     </row>
   </sheetData>
@@ -31708,7 +31708,7 @@
       </c>
       <c r="B2" s="11" t="str">
         <f>AutoIncrement!$B$2&amp;"82151-BZD90"</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>297</v>
@@ -31750,7 +31750,7 @@
       </c>
       <c r="B3" s="11" t="str">
         <f>AutoIncrement!$B$2&amp;"82151-BZE00"</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>301</v>
@@ -31792,7 +31792,7 @@
       </c>
       <c r="B4" s="11" t="str">
         <f>AutoIncrement!$B$2&amp;"82151-BZK50"</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>302</v>
@@ -31871,7 +31871,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-Request L2 Parts"</f>
-        <v>Z8-19-Request L2 Parts</v>
+        <v>ZS-20-Request L2 Parts</v>
       </c>
     </row>
   </sheetData>
@@ -31929,7 +31929,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>"FN 60 DAYS-"&amp;AutoIncrement!B2</f>
-        <v>FN 60 DAYS-Z8</v>
+        <v>FN 60 DAYS-ZS</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>70</v>
@@ -32053,18 +32053,18 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151-BZD90"</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZD90"</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E2" s="49" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>149</v>
@@ -32098,18 +32098,18 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151-BZE00"</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"82151BZE00"</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E3" s="49" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>149</v>
@@ -32143,18 +32143,18 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151-BZK50"</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"82151BZK50"</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>303</v>
       </c>
       <c r="E4" s="49" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>149</v>
@@ -32275,15 +32275,15 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>'TC021-Setup Data'!B2</f>
-        <v>Z8L219</v>
+        <v>ZSL220</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>"CD-01-"&amp;F2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>CD-01-Z8L219-19</v>
+        <v>CD-01-ZSL220-20</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>'TC007-Received Req Info'!H2</f>
-        <v>FN 60 DAYS-Z8(60 DAYS BY INV DATE)</v>
+        <v>FN 60 DAYS-ZS(60 DAYS BY INV DATE)</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>144</v>
@@ -32296,11 +32296,11 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>'TC007-Received Req Info'!L2</f>
-        <v>PNDC-PNCUS-Z8(PNDC-PNCUS-Z8)</v>
+        <v>PNDC-PNCUS-ZS(PNDC-PNCUS-ZS)</v>
       </c>
       <c r="M2" s="1" t="str">
         <f>"RD-01-"&amp;F2&amp;""</f>
-        <v>RD-01-Z8L219</v>
+        <v>RD-01-ZSL220</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>148</v>
@@ -32340,11 +32340,11 @@
     <row r="2" spans="1:2">
       <c r="A2" s="49" t="str">
         <f>"PNABU-L2-"&amp;AutoIncrement!B2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"L2"&amp;AutoIncrement!A2</f>
-        <v>Z8L219</v>
+        <v>ZSL220</v>
       </c>
     </row>
   </sheetData>
@@ -32427,18 +32427,18 @@
       </c>
       <c r="D2" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!B2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>167</v>
@@ -32448,7 +32448,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K2" s="43"/>
       <c r="L2" s="44"/>
@@ -32462,18 +32462,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!B3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>167</v>
@@ -32483,7 +32483,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K3" s="43"/>
       <c r="L3" s="44"/>
@@ -32497,18 +32497,18 @@
       <c r="C4" s="30"/>
       <c r="D4" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!B4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>167</v>
@@ -32518,7 +32518,7 @@
       </c>
       <c r="J4" s="10" t="str">
         <f>'TC004'!$A$2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
@@ -32585,19 +32585,19 @@
     <row r="2" spans="1:11">
       <c r="B2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"82151BZD90"</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="1" t="str">
         <f>AutoIncrement!B2&amp;"82151BZE00"</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="1" t="str">
         <f>AutoIncrement!B2&amp;"82151BZK50"</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -32606,7 +32606,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>148</v>
@@ -32642,7 +32642,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna18001404835"</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>148</v>
@@ -32678,7 +32678,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna18007703930"</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>146</v>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>146</v>
@@ -32750,7 +32750,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pnaNSL2BLACK"</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>148</v>
@@ -32786,7 +32786,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>148</v>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>148</v>
@@ -32905,7 +32905,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="D2" s="189">
         <f ca="1">TODAY()</f>
@@ -32921,7 +32921,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>'TC021-Setup Data'!A2</f>
-        <v>PNABU-L2-Z8-019</v>
+        <v>PNABU-L2-ZS-020</v>
       </c>
     </row>
   </sheetData>
@@ -32980,7 +32980,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -33004,7 +33004,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -33028,7 +33028,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -33052,7 +33052,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -33076,7 +33076,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -33100,7 +33100,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -33124,7 +33124,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -33190,7 +33190,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -33214,7 +33214,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -33238,7 +33238,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -33436,11 +33436,11 @@
     <row r="2" spans="1:20" s="15" customFormat="1">
       <c r="A2" s="12" t="str">
         <f>"PNDC-PNCUS-"&amp;AutoIncrement!B2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>A2</f>
-        <v>PNDC-PNCUS-Z8</v>
+        <v>PNDC-PNCUS-ZS</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>4</v>
@@ -33530,7 +33530,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="str">
         <f>'TC20-Req Add New Part (L2)'!B2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>327</v>
@@ -33542,7 +33542,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="str">
         <f>'TC20-Req Add New Part (L2)'!B3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>327</v>
@@ -33554,7 +33554,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="str">
         <f>'TC20-Req Add New Part (L2)'!B4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>328</v>
@@ -33672,7 +33672,7 @@
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>327</v>
@@ -33690,7 +33690,7 @@
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>327</v>
@@ -33708,7 +33708,7 @@
       </c>
       <c r="B4" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>327</v>
@@ -33726,7 +33726,7 @@
       </c>
       <c r="B5" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>328</v>
@@ -33792,7 +33792,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>327</v>
@@ -33802,18 +33802,18 @@
       </c>
       <c r="D2" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G2" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H2" s="56">
         <v>10</v>
@@ -33822,7 +33822,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>327</v>
@@ -33832,18 +33832,18 @@
       </c>
       <c r="D3" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H3" s="56">
         <v>6</v>
@@ -33852,7 +33852,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>328</v>
@@ -33862,18 +33862,18 @@
       </c>
       <c r="D4" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G4" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H4" s="56">
         <v>10</v>
@@ -33882,7 +33882,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>327</v>
@@ -33892,18 +33892,18 @@
       </c>
       <c r="D5" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E5" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G5" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H5" s="56">
         <v>0</v>
@@ -33912,7 +33912,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>327</v>
@@ -33922,18 +33922,18 @@
       </c>
       <c r="D6" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E6" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G6" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H6" s="56">
         <v>6</v>
@@ -33942,7 +33942,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>328</v>
@@ -33952,18 +33952,18 @@
       </c>
       <c r="D7" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G7" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B3</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H7" s="56">
         <v>20</v>
@@ -33972,7 +33972,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>327</v>
@@ -33982,18 +33982,18 @@
       </c>
       <c r="D8" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G8" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="H8" s="56">
         <v>0</v>
@@ -34002,7 +34002,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>327</v>
@@ -34012,18 +34012,18 @@
       </c>
       <c r="D9" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G9" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="H9" s="56">
         <v>1</v>
@@ -34032,7 +34032,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>328</v>
@@ -34042,18 +34042,18 @@
       </c>
       <c r="D10" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="H10" s="56">
         <v>1</v>
@@ -34062,7 +34062,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>327</v>
@@ -34072,18 +34072,18 @@
       </c>
       <c r="D11" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E11" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G11" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="H11" s="56">
         <v>0.64800000000000002</v>
@@ -34092,7 +34092,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>327</v>
@@ -34102,18 +34102,18 @@
       </c>
       <c r="D12" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F12" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G12" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="H12" s="56">
         <v>2</v>
@@ -34122,7 +34122,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>328</v>
@@ -34132,18 +34132,18 @@
       </c>
       <c r="D13" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B5</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="H13" s="56">
         <v>2</v>
@@ -34152,7 +34152,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>327</v>
@@ -34162,18 +34162,18 @@
       </c>
       <c r="D14" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F14" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G14" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="H14" s="56">
         <v>1.5329999999999999</v>
@@ -34182,7 +34182,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>327</v>
@@ -34192,18 +34192,18 @@
       </c>
       <c r="D15" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F15" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G15" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="H15" s="56">
         <v>3</v>
@@ -34212,7 +34212,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>328</v>
@@ -34222,18 +34222,18 @@
       </c>
       <c r="D16" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B6</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="H16" s="56">
         <v>3</v>
@@ -34242,7 +34242,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>327</v>
@@ -34252,18 +34252,18 @@
       </c>
       <c r="D17" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G17" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -34272,7 +34272,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>327</v>
@@ -34282,18 +34282,18 @@
       </c>
       <c r="D18" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G18" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="H18" s="56">
         <v>4</v>
@@ -34302,7 +34302,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>328</v>
@@ -34312,18 +34312,18 @@
       </c>
       <c r="D19" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E19" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F19" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G19" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B7</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="H19" s="56">
         <v>4</v>
@@ -34332,7 +34332,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>327</v>
@@ -34342,18 +34342,18 @@
       </c>
       <c r="D20" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E20" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F20" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="H20" s="56">
         <v>2</v>
@@ -34362,7 +34362,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>327</v>
@@ -34372,18 +34372,18 @@
       </c>
       <c r="D21" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E21" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G21" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="H21" s="56">
         <v>5</v>
@@ -34392,7 +34392,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="57" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>328</v>
@@ -34402,18 +34402,18 @@
       </c>
       <c r="D22" s="60" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>99</v>
       </c>
       <c r="F22" s="60" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="G22" s="60" t="str">
         <f>'TC007-Contract Parts Info'!B8</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="H22" s="56">
         <v>6</v>
@@ -34465,7 +34465,7 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>'TC027-materialFieldLvl2'!A2</f>
-        <v>Z882151-BZD90</v>
+        <v>ZS82151-BZD90</v>
       </c>
       <c r="B2" s="63">
         <v>50</v>
@@ -34489,7 +34489,7 @@
     <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>'TC027-materialFieldLvl2'!A3</f>
-        <v>Z882151-BZE00</v>
+        <v>ZS82151-BZE00</v>
       </c>
       <c r="B3" s="63">
         <v>3109.0909999999999</v>
@@ -34513,7 +34513,7 @@
     <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>'TC027-materialFieldLvl2'!A4</f>
-        <v>Z882151-BZK50</v>
+        <v>ZS82151-BZK50</v>
       </c>
       <c r="B4" s="63">
         <v>1000</v>
@@ -34565,7 +34565,7 @@
       </c>
       <c r="B2" t="str">
         <f>"PR-"&amp;AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>PR-Z8-19</v>
+        <v>PR-ZS-20</v>
       </c>
     </row>
   </sheetData>
@@ -34618,7 +34618,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="66">
         <v>29154.55</v>
@@ -34642,7 +34642,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="66">
         <v>38654.550000000003</v>
@@ -34666,7 +34666,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="67">
         <v>4109</v>
@@ -34690,7 +34690,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="66">
         <v>8250.58</v>
@@ -34714,7 +34714,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B6" s="66">
         <v>12403.92</v>
@@ -34738,7 +34738,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B7" s="66">
         <v>16486.36</v>
@@ -34762,7 +34762,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="65" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B8" s="67">
         <v>21645</v>
@@ -34809,61 +34809,61 @@
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
     </row>
   </sheetData>
@@ -34966,7 +34966,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -34993,7 +34993,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -35020,7 +35020,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -35047,7 +35047,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -35074,7 +35074,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -35101,7 +35101,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -35128,7 +35128,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -35209,7 +35209,7 @@
     <row r="2" spans="1:9">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -35236,7 +35236,7 @@
     <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -35263,7 +35263,7 @@
     <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -35372,7 +35372,7 @@
       </c>
       <c r="B2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-1"</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-2"</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>116</v>
@@ -35422,7 +35422,7 @@
       </c>
       <c r="B3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-2"</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
@@ -35445,7 +35445,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-1"</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>116</v>
@@ -35472,11 +35472,11 @@
       </c>
       <c r="B4" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>'TC002'!D2</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
@@ -35520,11 +35520,11 @@
       </c>
       <c r="B5" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>'TC002'!D3</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>48</v>
@@ -35568,11 +35568,11 @@
       </c>
       <c r="B6" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="C6" s="10" t="str">
         <f>'TC002'!D4</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>52</v>
@@ -35616,11 +35616,11 @@
       </c>
       <c r="B7" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="C7" s="10" t="str">
         <f>'TC002'!D5</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>56</v>
@@ -35664,11 +35664,11 @@
       </c>
       <c r="B8" s="10" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="C8" s="10" t="str">
         <f>'TC002'!D6</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>60</v>
@@ -35785,7 +35785,7 @@
       </c>
       <c r="D2" s="18" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-OCGN"</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>99</v>
@@ -35910,7 +35910,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>317</v>
@@ -35944,7 +35944,7 @@
       </c>
       <c r="M2" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>377</v>
@@ -35971,7 +35971,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>317</v>
@@ -36005,7 +36005,7 @@
       </c>
       <c r="M3" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="N3" s="30" t="s">
         <v>377</v>
@@ -36032,7 +36032,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>317</v>
@@ -36066,7 +36066,7 @@
       </c>
       <c r="M4" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="N4" s="30" t="s">
         <v>381</v>
@@ -36093,7 +36093,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>317</v>
@@ -36127,7 +36127,7 @@
       </c>
       <c r="M5" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>384</v>
@@ -36154,7 +36154,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>317</v>
@@ -36188,7 +36188,7 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>377</v>
@@ -36215,7 +36215,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>317</v>
@@ -36249,7 +36249,7 @@
       </c>
       <c r="M7" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>377</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>317</v>
@@ -36310,7 +36310,7 @@
       </c>
       <c r="M8" s="30" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>377</v>
@@ -36390,7 +36390,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC031-Create Order Calc Group'!D2</f>
-        <v>Z8-19-OCGN</v>
+        <v>ZS-20-OCGN</v>
       </c>
       <c r="C2" s="77">
         <v>45180</v>
@@ -36459,7 +36459,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="190">
         <v>140000000</v>
@@ -36480,7 +36480,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="190">
         <v>140000000</v>
@@ -36501,7 +36501,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="190">
         <v>44000</v>
@@ -36522,7 +36522,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="190">
         <v>49000</v>
@@ -36543,7 +36543,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B6" s="190">
         <v>75000</v>
@@ -36564,7 +36564,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B7" s="190">
         <v>102000</v>
@@ -36585,7 +36585,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B8" s="190">
         <v>140</v>
@@ -36648,22 +36648,22 @@
     <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="81" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="D2" t="str">
         <f>'TC007-Contract Parts Info'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E2" s="82" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()-1)), "dd MMM yyyy")</f>
-        <v>16 Nov 2023</v>
+        <v>16 11月 2023</v>
       </c>
       <c r="F2" s="83">
         <v>-10</v>
@@ -36672,22 +36672,22 @@
     <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="81" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="D3" t="str">
         <f>'TC007-Contract Parts Info'!B2</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="E3" s="82" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()-2)), "dd MMM yyyy")</f>
-        <v>15 Nov 2023</v>
+        <v>15 11月 2023</v>
       </c>
       <c r="F3" s="83">
         <v>-100</v>
@@ -36726,11 +36726,11 @@
     <row r="2" spans="1:3">
       <c r="A2" s="86" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="C2" s="88">
         <v>100</v>
@@ -36739,11 +36739,11 @@
     <row r="3" spans="1:3">
       <c r="A3" s="86" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="C3" s="88">
         <v>100</v>
@@ -36752,11 +36752,11 @@
     <row r="4" spans="1:3">
       <c r="A4" s="86" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B4" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="C4" s="88">
         <v>100</v>
@@ -36862,7 +36862,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -36889,7 +36889,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -36916,7 +36916,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -36943,7 +36943,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -36970,7 +36970,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -36997,7 +36997,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -37024,7 +37024,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -37106,7 +37106,7 @@
     <row r="2" spans="1:9">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -37133,7 +37133,7 @@
     <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -37160,7 +37160,7 @@
     <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -37226,7 +37226,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="190">
         <v>140085460</v>
@@ -37247,7 +37247,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="190">
         <v>140085460</v>
@@ -37268,7 +37268,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="190">
         <v>44000</v>
@@ -37289,7 +37289,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="190">
         <v>49500</v>
@@ -37310,7 +37310,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B6" s="190">
         <v>75000</v>
@@ -37331,7 +37331,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B7" s="190">
         <v>102000</v>
@@ -37352,7 +37352,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B8" s="190">
         <v>140</v>
@@ -37421,18 +37421,18 @@
     <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="137" t="str">
         <f>'TC002'!$D$2</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B2" s="92" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="81" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="D2" s="137" t="str">
         <f>'TC002'!$C$2</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E2" s="92"/>
       <c r="F2" s="92" t="s">
@@ -37443,7 +37443,7 @@
       </c>
       <c r="H2" s="82" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()-2)), "dd MMM yyyy")</f>
-        <v>15 Nov 2023</v>
+        <v>15 11月 2023</v>
       </c>
       <c r="I2" s="93">
         <v>66</v>
@@ -37476,7 +37476,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"-"&amp;AutoIncrement!A2&amp;"-Request L3 Parts"</f>
-        <v>Z8-19-Request L3 Parts</v>
+        <v>ZS-20-Request L3 Parts</v>
       </c>
     </row>
   </sheetData>
@@ -37579,7 +37579,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -37606,7 +37606,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -37633,7 +37633,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -37660,7 +37660,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -37687,7 +37687,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -37714,7 +37714,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -37741,7 +37741,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -37819,7 +37819,7 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C4</f>
-        <v>Z882151BZK50</v>
+        <v>ZS82151BZK50</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -37843,7 +37843,7 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C3</f>
-        <v>Z882151BZE00</v>
+        <v>ZS82151BZE00</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -37867,7 +37867,7 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC021-Contrct Part Info L2 (BU)'!C2</f>
-        <v>Z882151BZD90</v>
+        <v>ZS82151BZD90</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -37930,7 +37930,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="str">
         <f>'TC024'!$B10</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="190">
         <v>140085460</v>
@@ -37951,7 +37951,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="str">
         <f>'TC024'!$B11</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="190">
         <v>140085460</v>
@@ -37972,7 +37972,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="str">
         <f>'TC024'!$B5</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="190">
         <v>44000</v>
@@ -37993,7 +37993,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="str">
         <f>'TC024'!B6</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="190">
         <v>49500</v>
@@ -38014,7 +38014,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="str">
         <f>'TC024'!$B7</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B6" s="190">
         <v>75000</v>
@@ -38035,7 +38035,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="str">
         <f>'TC024'!$B8</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B7" s="190">
         <v>102000</v>
@@ -38056,7 +38056,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="str">
         <f>'TC024'!$B9</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B8" s="190">
         <v>140</v>
@@ -38122,7 +38122,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>'TC007-Setup Data'!B2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>'TC034-Create Order Calculation'!I2</f>
@@ -38130,7 +38130,7 @@
       </c>
       <c r="C2" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="D2" s="191">
         <v>140085460</v>
@@ -38144,7 +38144,7 @@
     <row r="3" spans="1:7">
       <c r="C3" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="D3" s="191">
         <v>140085460</v>
@@ -38158,7 +38158,7 @@
     <row r="4" spans="1:7">
       <c r="C4" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="D4" s="191">
         <v>44000</v>
@@ -38172,7 +38172,7 @@
     <row r="5" spans="1:7">
       <c r="C5" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="D5" s="191">
         <v>49500</v>
@@ -38186,7 +38186,7 @@
     <row r="6" spans="1:7">
       <c r="C6" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="D6" s="191">
         <v>75000</v>
@@ -38200,7 +38200,7 @@
     <row r="7" spans="1:7">
       <c r="C7" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="D7" s="191">
         <v>102000</v>
@@ -38214,7 +38214,7 @@
     <row r="8" spans="1:7">
       <c r="C8" s="94" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="D8" s="191">
         <v>140</v>
@@ -38259,7 +38259,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="B3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -38277,7 +38277,7 @@
       </c>
       <c r="B4" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
     </row>
   </sheetData>
@@ -38347,7 +38347,7 @@
       </c>
       <c r="C2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="D2" s="196" t="s">
         <v>704</v>
@@ -38382,7 +38382,7 @@
       </c>
       <c r="C3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="D3" s="196" t="s">
         <v>704</v>
@@ -38417,7 +38417,7 @@
       </c>
       <c r="C4" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="D4" s="196" t="s">
         <v>704</v>
@@ -38476,7 +38476,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
     </row>
   </sheetData>
@@ -38509,7 +38509,7 @@
     <row r="2" spans="1:2">
       <c r="A2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="100">
         <v>2.0019999999999998</v>
@@ -38518,7 +38518,7 @@
     <row r="3" spans="1:2">
       <c r="A3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="100">
         <v>1.0009999999999999</v>
@@ -38527,7 +38527,7 @@
     <row r="4" spans="1:2">
       <c r="A4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="100">
         <v>1.0009999999999999</v>
@@ -38634,7 +38634,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="102" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>428</v>
@@ -38644,11 +38644,11 @@
       <c r="E2" s="101"/>
       <c r="F2" s="102" t="str">
         <f>'TC011'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="G2" s="102" t="str">
         <f>'TC011'!C2</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-1</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="H2" s="101"/>
       <c r="I2" s="101" t="str">
@@ -38707,7 +38707,7 @@
     <row r="3" spans="1:25" ht="43.2">
       <c r="A3" s="101" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
@@ -38715,11 +38715,11 @@
       <c r="E3" s="101"/>
       <c r="F3" s="102" t="str">
         <f>'TC011'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>'TC011'!C3</f>
-        <v>Z8SUP-PNATEST,20230605000000000000-2</v>
+        <v>ZSSUP-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="H3" s="101"/>
       <c r="I3" s="101" t="str">
@@ -38783,11 +38783,11 @@
       <c r="E4" s="101"/>
       <c r="F4" s="102" t="str">
         <f>'TC011'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="G4" s="102" t="str">
         <f>'TC011'!C4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="H4" s="101"/>
       <c r="I4" s="101" t="str">
@@ -38943,7 +38943,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B2" s="218">
         <v>0</v>
@@ -38970,7 +38970,7 @@
     <row r="3" spans="1:20">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B3" s="218">
         <v>0</v>
@@ -38997,7 +38997,7 @@
     <row r="4" spans="1:20">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B4" s="218">
         <v>0</v>
@@ -39024,7 +39024,7 @@
     <row r="5" spans="1:20">
       <c r="A5" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="218">
         <v>0</v>
@@ -39051,7 +39051,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B6" s="218">
         <v>0</v>
@@ -39078,7 +39078,7 @@
     <row r="7" spans="1:20">
       <c r="A7" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B7" s="218">
         <v>0</v>
@@ -39105,7 +39105,7 @@
     <row r="8" spans="1:20">
       <c r="A8" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B8" s="218">
         <v>0</v>
@@ -39319,7 +39319,7 @@
     <row r="2" spans="1:36">
       <c r="A2" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B2" s="214">
         <v>100</v>
@@ -39428,7 +39428,7 @@
     <row r="3" spans="1:36">
       <c r="A3" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="214">
         <v>100</v>
@@ -39537,7 +39537,7 @@
     <row r="4" spans="1:36">
       <c r="A4" s="10" t="str">
         <f>'TC007-Contract Parts Info'!D2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B4" s="214">
         <v>100</v>
@@ -39690,11 +39690,11 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>"S10TC58 "&amp;AutoIncrement!B2</f>
-        <v>S10TC58 Z8</v>
+        <v>S10TC58 ZS</v>
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="141">
         <v>20</v>
@@ -39715,7 +39715,7 @@
     <row r="3" spans="1:7">
       <c r="B3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="141">
         <v>40</v>
@@ -39736,7 +39736,7 @@
     <row r="4" spans="1:7">
       <c r="B4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="141">
         <v>44000</v>
@@ -39831,7 +39831,7 @@
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="142">
         <f>TC058n59!C2</f>
@@ -39857,11 +39857,11 @@
     <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>TC058n59!A2</f>
-        <v>S10TC58 Z8</v>
+        <v>S10TC58 ZS</v>
       </c>
       <c r="B3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="142">
         <f>TC058n59!C3</f>
@@ -39887,7 +39887,7 @@
     <row r="4" spans="1:7">
       <c r="B4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="142">
         <f>TC058n59!C4</f>
@@ -39952,11 +39952,11 @@
     <row r="2" spans="1:5">
       <c r="A2" t="str">
         <f>"S10TC61 "&amp;AutoIncrement!B2</f>
-        <v>S10TC61 Z8</v>
+        <v>S10TC61 ZS</v>
       </c>
       <c r="B2" s="99" t="str">
         <f>'TC051'!F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="C2" s="146">
         <v>1</v>
@@ -39971,7 +39971,7 @@
     <row r="3" spans="1:5">
       <c r="B3" s="99" t="str">
         <f>'TC051'!F3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="C3" s="144">
         <v>10.000999999999999</v>
@@ -39983,7 +39983,7 @@
     <row r="4" spans="1:5">
       <c r="B4" s="99" t="str">
         <f>'TC051'!F4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="C4" s="144">
         <v>2.0019999999999998</v>
@@ -40034,11 +40034,11 @@
     <row r="2" spans="1:5">
       <c r="A2" t="str">
         <f>"S10TC63 "&amp;AutoIncrement!B2</f>
-        <v>S10TC63 Z8</v>
+        <v>S10TC63 ZS</v>
       </c>
       <c r="B2" s="194" t="str">
         <f>'TC001'!C3</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C2" s="147">
         <v>1.23</v>
@@ -40084,11 +40084,11 @@
     <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f>"S10TC65 "&amp;AutoIncrement!B2</f>
-        <v>S10TC65 Z8</v>
+        <v>S10TC65 ZS</v>
       </c>
       <c r="B2" s="194" t="str">
         <f>'TC001'!C3</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C2" t="s">
         <v>815</v>
@@ -40127,11 +40127,11 @@
     <row r="2" spans="1:3">
       <c r="A2" t="str">
         <f>"S10TC67 "&amp;AutoIncrement!B2</f>
-        <v>S10TC67 Z8</v>
+        <v>S10TC67 ZS</v>
       </c>
       <c r="B2" s="194" t="str">
         <f>'TC001'!C3</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="C2" t="s">
         <v>816</v>
@@ -40188,11 +40188,11 @@
     <row r="2" spans="1:8">
       <c r="A2" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="C2" s="151" t="s">
         <v>317</v>
@@ -40216,11 +40216,11 @@
     <row r="3" spans="1:8">
       <c r="A3" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>317</v>
@@ -40244,11 +40244,11 @@
     <row r="4" spans="1:8">
       <c r="A4" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="C4" s="151" t="s">
         <v>317</v>
@@ -40272,11 +40272,11 @@
     <row r="5" spans="1:8">
       <c r="A5" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="B5" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="C5" s="151" t="s">
         <v>317</v>
@@ -40300,11 +40300,11 @@
     <row r="6" spans="1:8">
       <c r="A6" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B6" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="C6" s="151" t="s">
         <v>317</v>
@@ -40328,11 +40328,11 @@
     <row r="7" spans="1:8">
       <c r="A7" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B7" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="C7" s="151" t="s">
         <v>317</v>
@@ -40356,11 +40356,11 @@
     <row r="8" spans="1:8" ht="13.8" customHeight="1">
       <c r="A8" t="str">
         <f>'TC033-Up Stock Mngmt Calc Set'!B8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B8" s="153" t="str">
         <f>'TC007-Setup Data'!B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="C8" s="151" t="s">
         <v>317</v>
@@ -40511,15 +40511,15 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-1"</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-1</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"BU-PNATEST,20230605000000000000-1"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-1</v>
+        <v>ZSBU-PNATEST,20230605000000000000-1</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>142</v>
@@ -40529,7 +40529,7 @@
       </c>
       <c r="G2" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>143</v>
@@ -40587,15 +40587,15 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>AutoIncrement!B2&amp;"CUS-PNATEST,20230605000000000000-2"</f>
-        <v>Z8CUS-PNATEST,20230605000000000000-2</v>
+        <v>ZSCUS-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"BU-PNATEST,20230605000000000000-2"</f>
-        <v>Z8BU-PNATEST,20230605000000000000-2</v>
+        <v>ZSBU-PNATEST,20230605000000000000-2</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>147</v>
@@ -40605,7 +40605,7 @@
       </c>
       <c r="G3" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>143</v>
@@ -40663,15 +40663,15 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>43</v>
@@ -40681,7 +40681,7 @@
       </c>
       <c r="G4" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>149</v>
@@ -40739,15 +40739,15 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18001404835"</f>
-        <v>Z8pna-18001404835</v>
+        <v>ZSpna-18001404835</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C5</f>
-        <v>Z8pna18001404835</v>
+        <v>ZSpna18001404835</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>48</v>
@@ -40757,7 +40757,7 @@
       </c>
       <c r="G5" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>149</v>
@@ -40815,15 +40815,15 @@
       </c>
       <c r="B6" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-18007703930"</f>
-        <v>Z8pna-18007703930</v>
+        <v>ZSpna-18007703930</v>
       </c>
       <c r="D6" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C6</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>52</v>
@@ -40833,7 +40833,7 @@
       </c>
       <c r="G6" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>149</v>
@@ -40891,15 +40891,15 @@
       </c>
       <c r="B7" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-45050040130"</f>
-        <v>Z8pna-45050040130</v>
+        <v>ZSpna-45050040130</v>
       </c>
       <c r="D7" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C7</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>56</v>
@@ -40909,7 +40909,7 @@
       </c>
       <c r="G7" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>149</v>
@@ -40967,15 +40967,15 @@
       </c>
       <c r="B8" s="8" t="str">
         <f>AutoIncrement!B2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>AutoIncrement!$B$2&amp;"pna-NSL-2BLACK"</f>
-        <v>Z8pna-NSL-2BLACK</v>
+        <v>ZSpna-NSL-2BLACK</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>'TC005-Req to Parts Master'!C8</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>60</v>
@@ -40985,7 +40985,7 @@
       </c>
       <c r="G8" s="18" t="str">
         <f>'TC007-Setup Data'!$B$2</f>
-        <v>PNABU-L3-Z8-019</v>
+        <v>PNABU-L3-ZS-020</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>149</v>
@@ -41085,7 +41085,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="105" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000001"</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="106">
         <v>200</v>
@@ -41103,7 +41103,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="105" t="str">
         <f>AutoIncrement!B2&amp;"ATEST202306050000000000002"</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="106">
         <v>200</v>
@@ -41121,7 +41121,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="106">
         <v>44000</v>
@@ -41139,7 +41139,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pna18007703930"</f>
-        <v>Z8pna18007703930</v>
+        <v>ZSpna18007703930</v>
       </c>
       <c r="B5" s="107">
         <v>1500</v>
@@ -41157,7 +41157,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pna45050040130"</f>
-        <v>Z8pna45050040130</v>
+        <v>ZSpna45050040130</v>
       </c>
       <c r="B6" s="106">
         <v>6000</v>
@@ -41175,7 +41175,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="105" t="str">
         <f>AutoIncrement!B2&amp;"pnaNSL2BLACK"</f>
-        <v>Z8pnaNSL2BLACK</v>
+        <v>ZSpnaNSL2BLACK</v>
       </c>
       <c r="B7" s="106">
         <v>200</v>
@@ -41224,29 +41224,29 @@
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
       <c r="B2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+1)), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>18 11月 2023</v>
       </c>
       <c r="C2" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>17 Nov 2023</v>
+        <v>17 11月 2023</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+15), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>02 12月 2023</v>
       </c>
       <c r="B3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+16), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>03 12月 2023</v>
       </c>
       <c r="C3" s="1" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+31), "dd MMM yyyy")</f>
-        <v>18 Dec 2023</v>
+        <v>18 12月 2023</v>
       </c>
     </row>
   </sheetData>
@@ -41312,7 +41312,7 @@
       </c>
       <c r="B2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -41321,7 +41321,7 @@
       </c>
       <c r="B3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
     </row>
   </sheetData>
@@ -41390,7 +41390,7 @@
       </c>
       <c r="C2" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="D2" s="196" t="s">
         <v>15</v>
@@ -41425,7 +41425,7 @@
       </c>
       <c r="C3" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="D3" s="196" t="s">
         <v>15</v>
@@ -41483,7 +41483,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="99" t="str">
         <f>'TC051'!$F2</f>
-        <v>Z8ATEST202306050000000000001</v>
+        <v>ZSATEST202306050000000000001</v>
       </c>
       <c r="B2" s="167">
         <v>2.0019999999999998</v>
@@ -41495,7 +41495,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="99" t="str">
         <f>'TC051'!$F3</f>
-        <v>Z8ATEST202306050000000000002</v>
+        <v>ZSATEST202306050000000000002</v>
       </c>
       <c r="B3" s="167">
         <v>2</v>
@@ -41507,7 +41507,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="99" t="str">
         <f>'TC051'!$F4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B4" s="167">
         <v>10.000999999999999</v>
@@ -41556,7 +41556,7 @@
       </c>
       <c r="B2" s="208" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="C2" t="s">
         <v>820</v>
@@ -41601,7 +41601,7 @@
       </c>
       <c r="B2" s="208" t="str">
         <f>'TC012-Setup Data'!A2</f>
-        <v>JPYAZ-Z8s2-019</v>
+        <v>JPYAZ-ZSs2-020</v>
       </c>
       <c r="C2" t="s">
         <v>821</v>
@@ -41706,22 +41706,22 @@
       <c r="B2" s="161"/>
       <c r="C2" s="162" t="str">
         <f>'TC005-Req to Parts Master'!C4</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="D2" s="162" t="str">
         <f>'TC011-Setup Data'!A2</f>
-        <v>ELASUP-Z8s1-019</v>
+        <v>ELASUP-ZSs1-020</v>
       </c>
       <c r="E2" s="163" t="s">
         <v>145</v>
       </c>
       <c r="F2" s="162" t="str">
         <f>'TC005-Req to Parts Master'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="G2" s="162" t="str">
         <f>'TC005-Req to Parts Master'!B4</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="H2" s="164"/>
       <c r="I2" s="164"/>
@@ -41840,11 +41840,11 @@
     <row r="2" spans="1:17" ht="14.4">
       <c r="A2" s="1" t="str">
         <f>AutoIncrement!B2&amp;"pna1219AS1"</f>
-        <v>Z8pna1219AS1</v>
+        <v>ZSpna1219AS1</v>
       </c>
       <c r="B2" s="46" t="str">
         <f>AutoIncrement!B2&amp;"pna-1219AS-1"</f>
-        <v>Z8pna-1219AS-1</v>
+        <v>ZSpna-1219AS-1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>145</v>
